--- a/ODataFilters.xlsx
+++ b/ODataFilters.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yu/Documents/GitHub/PowerPlatform-PowerAutomate-Sone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB3418-0958-FE4A-A7E0-1971853F4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CA2EF-78D0-3941-B537-F4A33FAB2BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
+    <workbookView xWindow="0" yWindow="8020" windowWidth="33560" windowHeight="15620" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Parameter_Aliases_1" localSheetId="0">Sheet1!$A$96</definedName>
-    <definedName name="_Toc31358947" localSheetId="0">Sheet1!$A$1</definedName>
-    <definedName name="_Toc31358948" localSheetId="0">Sheet1!$A$6</definedName>
-    <definedName name="_Toc31358949" localSheetId="0">Sheet1!$A$19</definedName>
-    <definedName name="_Toc31358950" localSheetId="0">Sheet1!$A$47</definedName>
+    <definedName name="_Parameter_Aliases_1" localSheetId="0">Sheet1!$A$99</definedName>
+    <definedName name="_Toc31358947" localSheetId="0">Sheet1!$A$2</definedName>
+    <definedName name="_Toc31358948" localSheetId="0">Sheet1!$A$7</definedName>
+    <definedName name="_Toc31358949" localSheetId="0">Sheet1!$A$20</definedName>
+    <definedName name="_Toc31358950" localSheetId="0">Sheet1!$A$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
-  <si>
-    <t>Operator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
   <si>
     <t>Description</t>
   </si>
@@ -757,6 +754,110 @@
   </si>
   <si>
     <t>Dataverse</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Operator</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Choice</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DateAndTime</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>AutoNumber</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DateOnly</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DecimalNumber</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FloatingPointNumber</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Lookup</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>MultilineText</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>MultiSelectChoice</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TextArea</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TickerSymbol</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Timezone</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>WholeNumber</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>YesNo</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1241,793 +1342,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F1B36-E3DB-8E4A-9C96-A6B03BE0B94E}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A2:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:D52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="69.140625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="2.85546875" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="2.85546875" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="6"/>
+      <c r="D22" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>177</v>
+      </c>
+      <c r="R23" t="s">
+        <v>178</v>
+      </c>
+      <c r="S23" t="s">
+        <v>179</v>
+      </c>
+      <c r="T23" t="s">
+        <v>180</v>
+      </c>
+      <c r="U23" t="s">
+        <v>181</v>
+      </c>
+      <c r="V23" t="s">
+        <v>182</v>
+      </c>
+      <c r="W23" t="s">
+        <v>183</v>
+      </c>
+      <c r="X23" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="7"/>
+      <c r="D54" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="H54" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" t="s">
+        <v>170</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" t="s">
+        <v>172</v>
+      </c>
+      <c r="L55" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s">
+        <v>173</v>
+      </c>
+      <c r="N55" t="s">
+        <v>174</v>
+      </c>
+      <c r="O55" t="s">
+        <v>175</v>
+      </c>
+      <c r="P55" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>177</v>
+      </c>
+      <c r="R55" t="s">
+        <v>178</v>
+      </c>
+      <c r="S55" t="s">
+        <v>179</v>
+      </c>
+      <c r="T55" t="s">
+        <v>180</v>
+      </c>
+      <c r="U55" t="s">
+        <v>181</v>
+      </c>
+      <c r="V55" t="s">
+        <v>182</v>
+      </c>
+      <c r="W55" t="s">
+        <v>183</v>
+      </c>
+      <c r="X55" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="Y58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="Y59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="Y62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
+    <row r="65" spans="1:25">
+      <c r="A65" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
+    <row r="68" spans="1:25">
+      <c r="A68" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+    <row r="73" spans="1:25">
+      <c r="A73" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3" t="s">
+      <c r="B75" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="3" t="s">
+      <c r="B77" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="5" t="s">
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="5" t="s">
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
+      <c r="B82" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="5" t="s">
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3" t="s">
+      <c r="B85" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="5" t="s">
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="3" t="s">
+      <c r="B86" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+    <row r="88" spans="1:18">
+      <c r="A88" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="3" t="s">
+      <c r="B89" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+    <row r="92" spans="1:18">
+      <c r="A92" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3" t="s">
+      <c r="B92" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="5" t="s">
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="5" t="s">
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="5" t="s">
+    <row r="95" spans="1:18">
+      <c r="A95" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
+    <row r="96" spans="1:18">
+      <c r="A96" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" location="sec_BuiltinFilterOperations" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_BuiltinFilterOperations" xr:uid="{BD0B90E5-9B30-3C41-B587-15433A83EAB9}"/>
-    <hyperlink ref="A20" r:id="rId2" location="ODataURLRef" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - ODataURLRef" xr:uid="{7F7CEEEE-265E-D44F-9564-5C537EE3C3C4}"/>
-    <hyperlink ref="A47" r:id="rId3" location="sec_BuiltinQueryFunctions" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_BuiltinQueryFunctions" xr:uid="{EC72CFDB-E525-814D-8038-DDC66977BEE3}"/>
-    <hyperlink ref="A50" r:id="rId4" location="ODataURLRef" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - ODataURLRef" xr:uid="{EB542271-24FC-CE47-86C0-BCDA00919539}"/>
-    <hyperlink ref="A1" r:id="rId5" location="sec_QueryingCollections" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_QueryingCollections" xr:uid="{F8C3B11B-5238-9F4D-A171-C8F2DF81867D}"/>
-    <hyperlink ref="A3" r:id="rId6" location="sec_SystemQueryOptions" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_SystemQueryOptions" xr:uid="{20E07FC0-F42B-A74B-A8C1-E0EA8D3E4435}"/>
-    <hyperlink ref="A5" r:id="rId7" location="sec_ResponseCode501NotImplemented" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_ResponseCode501NotImplemented" xr:uid="{4EB1C8FD-059B-FE45-B4F9-183DBBE7882D}"/>
-    <hyperlink ref="A6" r:id="rId8" location="sec_SystemQueryOptionfilter" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_SystemQueryOptionfilter" xr:uid="{517EE79E-77F3-A44C-8C09-25FC406F7C60}"/>
-    <hyperlink ref="A10" r:id="rId9" location="sec_SystemQueryOptioncount" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_SystemQueryOptioncount" xr:uid="{B2779574-4709-0A4A-AB93-ACB8C8CECDF2}"/>
-    <hyperlink ref="A13" r:id="rId10" location="ABNF" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - ABNF" xr:uid="{89F39009-74E0-D84B-AE2C-23AD4B113EE8}"/>
+    <hyperlink ref="A18" r:id="rId1" location="sec_BuiltinFilterOperations" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_BuiltinFilterOperations" xr:uid="{BD0B90E5-9B30-3C41-B587-15433A83EAB9}"/>
+    <hyperlink ref="A21" r:id="rId2" location="ODataURLRef" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - ODataURLRef" xr:uid="{7F7CEEEE-265E-D44F-9564-5C537EE3C3C4}"/>
+    <hyperlink ref="A49" r:id="rId3" location="sec_BuiltinQueryFunctions" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_BuiltinQueryFunctions" xr:uid="{EC72CFDB-E525-814D-8038-DDC66977BEE3}"/>
+    <hyperlink ref="A52" r:id="rId4" location="ODataURLRef" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - ODataURLRef" xr:uid="{EB542271-24FC-CE47-86C0-BCDA00919539}"/>
+    <hyperlink ref="A2" r:id="rId5" location="sec_QueryingCollections" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_QueryingCollections" xr:uid="{F8C3B11B-5238-9F4D-A171-C8F2DF81867D}"/>
+    <hyperlink ref="A4" r:id="rId6" location="sec_SystemQueryOptions" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_SystemQueryOptions" xr:uid="{20E07FC0-F42B-A74B-A8C1-E0EA8D3E4435}"/>
+    <hyperlink ref="A6" r:id="rId7" location="sec_ResponseCode501NotImplemented" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_ResponseCode501NotImplemented" xr:uid="{4EB1C8FD-059B-FE45-B4F9-183DBBE7882D}"/>
+    <hyperlink ref="A7" r:id="rId8" location="sec_SystemQueryOptionfilter" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_SystemQueryOptionfilter" xr:uid="{517EE79E-77F3-A44C-8C09-25FC406F7C60}"/>
+    <hyperlink ref="A11" r:id="rId9" location="sec_SystemQueryOptioncount" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - sec_SystemQueryOptioncount" xr:uid="{B2779574-4709-0A4A-AB93-ACB8C8CECDF2}"/>
+    <hyperlink ref="A14" r:id="rId10" location="ABNF" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - ABNF" xr:uid="{89F39009-74E0-D84B-AE2C-23AD4B113EE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ODataFilters.xlsx
+++ b/ODataFilters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yu/Documents/GitHub/PowerPlatform-PowerAutomate-Sone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CA2EF-78D0-3941-B537-F4A33FAB2BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F47CD66-78FD-A949-855F-07479C737556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="8020" windowWidth="33560" windowHeight="15620" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="193">
   <si>
     <t>Description</t>
   </si>
@@ -858,6 +858,14 @@
   </si>
   <si>
     <t>YesNo</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* substringof</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* replace</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1342,16 +1350,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F1B36-E3DB-8E4A-9C96-A6B03BE0B94E}">
-  <dimension ref="A2:AE100"/>
+  <dimension ref="A2:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="69.140625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="2.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1623,6 +1637,9 @@
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -1637,6 +1654,9 @@
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
       <c r="Y26">
         <v>1</v>
       </c>
@@ -1662,6 +1682,9 @@
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="M28">
         <v>1</v>
       </c>
@@ -1687,6 +1710,9 @@
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
       <c r="M30">
         <v>1</v>
       </c>
@@ -1712,6 +1738,9 @@
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
       <c r="Y32">
         <v>0</v>
       </c>
@@ -1731,6 +1760,12 @@
       <c r="C34" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
       <c r="M34">
         <v>1</v>
       </c>
@@ -1748,6 +1783,9 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
       <c r="Y35">
         <v>1</v>
       </c>
@@ -1762,6 +1800,9 @@
       <c r="C36" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
       <c r="Y36">
         <v>1</v>
       </c>
@@ -1781,6 +1822,9 @@
       <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
       <c r="R38">
         <v>0</v>
       </c>
@@ -1795,6 +1839,9 @@
       <c r="C39" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
       <c r="R39">
         <v>0</v>
       </c>
@@ -1809,6 +1856,9 @@
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
       <c r="R40">
         <v>0</v>
       </c>
@@ -1823,6 +1873,9 @@
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
       <c r="R41">
         <v>0</v>
       </c>
@@ -1837,6 +1890,9 @@
       <c r="C42" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
       <c r="R42">
         <v>0</v>
       </c>
@@ -1850,6 +1906,9 @@
       </c>
       <c r="C43" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -2027,6 +2086,9 @@
       <c r="B57" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
       <c r="Y57">
         <v>0</v>
       </c>
@@ -2038,6 +2100,9 @@
       <c r="B58" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
       <c r="Y58">
         <v>1</v>
       </c>
@@ -2049,6 +2114,9 @@
       <c r="B59" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
       <c r="Y59">
         <v>1</v>
       </c>
@@ -2060,6 +2128,9 @@
       <c r="B60" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
       <c r="Y60">
         <v>0</v>
       </c>
@@ -2071,6 +2142,9 @@
       <c r="B61" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
       <c r="Y61">
         <v>0</v>
       </c>
@@ -2082,6 +2156,9 @@
       <c r="B62" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
       <c r="Y62">
         <v>1</v>
       </c>
@@ -2093,6 +2170,9 @@
       <c r="B63" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
       <c r="Y63">
         <v>0</v>
       </c>
@@ -2109,6 +2189,9 @@
       <c r="B65" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
       <c r="I65">
         <v>0</v>
       </c>
@@ -2120,6 +2203,9 @@
       <c r="B66" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
       <c r="I66">
         <v>0</v>
       </c>
@@ -2136,6 +2222,9 @@
       <c r="B68" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
       <c r="Y68">
         <v>0</v>
       </c>
@@ -2147,6 +2236,9 @@
       <c r="B69" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
       <c r="Y69">
         <v>0</v>
       </c>
@@ -2158,6 +2250,9 @@
       <c r="B70" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
       <c r="Y70">
         <v>0</v>
       </c>
@@ -2169,6 +2264,9 @@
       <c r="B71" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
       <c r="Y71">
         <v>0</v>
       </c>
@@ -2185,6 +2283,9 @@
       <c r="B73" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
       <c r="M73">
         <v>0</v>
       </c>
@@ -2196,6 +2297,9 @@
       <c r="B74" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
       <c r="M74">
         <v>0</v>
       </c>
@@ -2207,9 +2311,6 @@
       <c r="B75" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="3" t="s">
@@ -2218,6 +2319,9 @@
       <c r="B76" s="5" t="s">
         <v>106</v>
       </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
       <c r="M76">
         <v>0</v>
       </c>
@@ -2245,6 +2349,9 @@
       <c r="B79" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
       <c r="M79">
         <v>0</v>
       </c>
@@ -2256,6 +2363,9 @@
       <c r="B80" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
       <c r="M80">
         <v>0</v>
       </c>
@@ -2267,6 +2377,9 @@
       <c r="B81" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
       <c r="M81">
         <v>0</v>
       </c>
@@ -2278,6 +2391,9 @@
       <c r="B82" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
       <c r="M82">
         <v>0</v>
       </c>
@@ -2289,6 +2405,9 @@
       <c r="B83" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
       <c r="M83">
         <v>0</v>
       </c>
@@ -2316,6 +2435,9 @@
       <c r="B86" s="5" t="s">
         <v>125</v>
       </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
       <c r="M86">
         <v>0</v>
       </c>
@@ -2332,6 +2454,9 @@
       <c r="B88" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
       <c r="R88">
         <v>0</v>
       </c>
@@ -2343,6 +2468,9 @@
       <c r="B89" s="5" t="s">
         <v>130</v>
       </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
       <c r="R89">
         <v>0</v>
       </c>
@@ -2354,6 +2482,9 @@
       <c r="B90" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
       <c r="R90">
         <v>0</v>
       </c>
@@ -2400,7 +2531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:7">
       <c r="A97" s="3" t="s">
         <v>142</v>
       </c>
@@ -2408,7 +2539,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:7">
       <c r="A98" s="3" t="s">
         <v>144</v>
       </c>
@@ -2416,17 +2547,37 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:7">
       <c r="A100" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>148</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ODataFilters.xlsx
+++ b/ODataFilters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yu/Documents/GitHub/PowerPlatform-PowerAutomate-Sone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\Documents\GitHub\PowerPlatform-PowerAutomate-Sone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F47CD66-78FD-A949-855F-07479C737556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373CF950-15A4-40C9-AFDC-D5D2637497C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8020" windowWidth="33560" windowHeight="15620" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="248">
   <si>
     <t>Description</t>
   </si>
@@ -372,39 +372,24 @@
     <t>substring</t>
   </si>
   <si>
-    <t>substring(CompanyName,1) eq 'lfreds Futterkiste'</t>
-  </si>
-  <si>
     <t>Collection Functions</t>
   </si>
   <si>
     <t>hassubset</t>
   </si>
   <si>
-    <t>hassubset([4,1,3],[3,1])</t>
-  </si>
-  <si>
     <t>hassubsequence</t>
   </si>
   <si>
-    <t>hassubsequence([4,1,3,1],[1,1])</t>
-  </si>
-  <si>
     <t>String Functions</t>
   </si>
   <si>
     <t>matchesPattern</t>
   </si>
   <si>
-    <t>matchesPattern(CompanyName,'%5EA.*e$')</t>
-  </si>
-  <si>
     <t>tolower</t>
   </si>
   <si>
-    <t>tolower(CompanyName) eq 'alfreds futterkiste'</t>
-  </si>
-  <si>
     <t>toupper</t>
   </si>
   <si>
@@ -423,9 +408,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>day(StartTime) eq 8</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -438,33 +420,18 @@
     <t>second(StartTime) eq 0</t>
   </si>
   <si>
-    <t>hour</t>
-  </si>
-  <si>
     <t>hour(StartTime) eq 1</t>
   </si>
   <si>
     <t>maxdatetime</t>
   </si>
   <si>
-    <t>EndTime eq maxdatetime()</t>
-  </si>
-  <si>
     <t>mindatetime</t>
   </si>
   <si>
-    <t>StartTime eq mindatetime()</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
     <t>minute(StartTime) eq 0</t>
   </si>
   <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>month(BirthDate) eq 12</t>
   </si>
   <si>
@@ -474,30 +441,15 @@
     <t>StartTime ge now()</t>
   </si>
   <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>time(StartTime) le StartOfDay</t>
   </si>
   <si>
-    <t>totaloffsetminutes</t>
-  </si>
-  <si>
     <t>totaloffsetminutes(StartTime) eq 60</t>
   </si>
   <si>
-    <t>totalseconds</t>
-  </si>
-  <si>
     <t>totalseconds(duration'PT1M') eq 60</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>year(BirthDate) eq 0</t>
   </si>
   <si>
@@ -507,18 +459,9 @@
     <t>ceiling</t>
   </si>
   <si>
-    <t>ceiling(Freight) eq 33</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
     <t>floor(Freight) eq 32</t>
   </si>
   <si>
-    <t>round</t>
-  </si>
-  <si>
     <t>round(Freight) eq 32</t>
   </si>
   <si>
@@ -534,12 +477,6 @@
     <t>isof</t>
   </si>
   <si>
-    <t>isof(NorthwindModel.Order)</t>
-  </si>
-  <si>
-    <t>isof(ShipCountry,Edm.String)</t>
-  </si>
-  <si>
     <t>Geo Functions</t>
   </si>
   <si>
@@ -552,9 +489,6 @@
     <t>geo.intersects</t>
   </si>
   <si>
-    <t>geo.intersects(Position,TargetArea)</t>
-  </si>
-  <si>
     <t>geo.length</t>
   </si>
   <si>
@@ -565,9 +499,6 @@
   </si>
   <si>
     <t>case</t>
-  </si>
-  <si>
-    <t>case(X gt 0:1,X lt 0:-1,true:0)</t>
   </si>
   <si>
     <r>
@@ -865,7 +796,362 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>* replace</t>
+    <t>ya_mytext eq 'Quisque id porttitor sapien.'</t>
+  </si>
+  <si>
+    <t>ya_mytext ne 'Quisque id porttitor sapien.'</t>
+  </si>
+  <si>
+    <t>ya_mytext gt 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'GreaterThan'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext ge 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'GreaterThanOrEqual'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cast(ya_mytext,Edm.Int32) lt 0
+The "cast" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext lt 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'LessThan'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext le 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'LessThanOrEqual'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext in ( 'Quisque' )
+The method or operation is not implemented.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext has MyChoice'Value1'
+Unrecognized 'Edm.String' literal 'MyChoice'Value1'' at '14' in 'ya_mytext has MyChoice'Value1''.
+ya_mytext has MyChoice'100000000'
+Unrecognized 'Edm.String' literal 'MyChoice'100000000'' at '14' in 'ya_mytext has MyChoice'100000000''.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext eq null or ya_mytext ne null</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext eq null and ya_mytext ne null</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>not ( ya_mytext eq null )</t>
+  </si>
+  <si>
+    <t>not ( ya_mytext eq null )</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext add 5 gt 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'Add'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext sub 5 gt 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'Subtract'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext mul 5 gt 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'Multiply'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext div 5 gt 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'Divide'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext divby 5 gt 0
+Syntax error at position 15 in 'ya_mytext divby 5 gt 0'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mytext mod 5 gt 0
+A binary operator with incompatible types was detected. Found operand types 'Edm.String' and 'Edm.Int32' for operator kind 'Modulo'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>concat(ya_mytext, ',') ne ''
+The "concat" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>contains(ya_mytext, 'Quisque')</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>endswith(ya_mytext, 'Quisque')</t>
+  </si>
+  <si>
+    <t>startswith(ya_mytext, 'Quisque')</t>
+  </si>
+  <si>
+    <t>indexof(ya_mytext, 'Quisque') eq 0
+The "indexof" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>length(ya_mytext) ne 0
+The "length" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>substring(CompanyName,1) eq 'lfreds Futterkiste'</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>substring(ya_mytext, 0) eq 'Quisque'
+The "substring" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hassubset([4,1,3],[3,1])</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hassubset(ya_mytext, ya_mytext)
+An unknown function with name 'hassubset' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hassubsequence([4,1,3,1],[1,1])</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hassubsequence(ya_mytext, ya_mytext)
+An unknown function with name 'hassubsequence' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>matchesPattern(CompanyName,'%5EA.*e$')</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>matchesPattern(ya_mytext, '.+')
+An unknown function with name 'matchesPattern' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>tolower(CompanyName) eq 'alfreds futterkiste'</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>tolower(ya_mytext) eq 'quisque'
+The "tolower" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>toupper(ya_mytext) eq 'QUISQUE'
+The "toupper" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>trim(ya_mytext) eq 'Quisque id porttitor sapien.'
+The "trim" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>case(X gt 0:1,X lt 0:-1,true:0)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>case(ya_mytext eq null:1,ya_mytext eq '':-1,true:0)
+')' or ',' expected at position 22 in 'case(ya_mytext eq null:1,ya_mytext eq '':-1,true:0)'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>now() ne null
+The "now" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>day(StartTime) eq 8</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>day(ya_mytext) eq 8
+No function signature for the function with name 'day' matches the specified arguments. The function signatures considered are: day(Edm.DateTimeOffset); day(Edm.DateTimeOffset Nullable=true); day(Edm.Date); day(Edm.Date Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>date(ya_mytext) eq 8
+No function signature for the function with name 'date' matches the specified arguments. The function signatures considered are: date(Edm.DateTimeOffset); date(Edm.DateTimeOffset Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>second(StartTime) eq 0</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>second(ya_mytext) eq 8
+No function signature for the function with name 'second' matches the specified arguments. The function signatures considered are: second(Edm.DateTimeOffset); second(Edm.DateTimeOffset Nullable=true); second(Edm.Duration); second(Edm.Duration Nullable=true); second(Edm.TimeOfDay); second(Edm.TimeOfDay Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hour(ya_mytext) eq 8
+No function signature for the function with name 'hour' matches the specified arguments. The function signatures considered are: hour(Edm.DateTimeOffset); hour(Edm.DateTimeOffset Nullable=true); hour(Edm.Duration); hour(Edm.Duration Nullable=true); hour(Edm.TimeOfDay); hour(Edm.TimeOfDay Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>EndTime eq maxdatetime()</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>maxdatetime() ne null
+The "maxdatetime" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>StartTime eq mindatetime()</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>mindatetime() ne null
+The "mindatetime" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>minute(ya_mytext) eq 8
+No function signature for the function with name 'minute' matches the specified arguments. The function signatures considered are: minute(Edm.DateTimeOffset); minute(Edm.DateTimeOffset Nullable=true); minute(Edm.Duration); minute(Edm.Duration Nullable=true); minute(Edm.TimeOfDay); minute(Edm.TimeOfDay Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>month(ya_mytext) eq 8
+No function signature for the function with name 'month' matches the specified arguments. The function signatures considered are: month(Edm.DateTimeOffset); month(Edm.DateTimeOffset Nullable=true); month(Edm.Date); month(Edm.Date Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>time(ya_mytext) eq 8
+No function signature for the function with name 'time' matches the specified arguments. The function signatures considered are: time(Edm.DateTimeOffset); time(Edm.DateTimeOffset Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totaloffsetminutes</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totaloffsetminutes(ya_mytext) eq 8
+No function signature for the function with name 'totaloffsetminutes' matches the specified arguments. The function signatures considered are: totaloffsetminutes(Edm.DateTimeOffset); totaloffsetminutes(Edm.DateTimeOffset Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totalseconds</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totalseconds(ya_mytext) eq 8
+No function signature for the function with name 'totalseconds' matches the specified arguments. The function signatures considered are: totalseconds(Edm.Duration); totalseconds(Edm.Duration Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>year(ya_mytext) eq 8
+No function signature for the function with name 'year' matches the specified arguments. The function signatures considered are: year(Edm.DateTimeOffset); year(Edm.DateTimeOffset Nullable=true); year(Edm.Date); year(Edm.Date Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ceiling(Freight) eq 33</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ceiling(ya_mytext) eq 0
+No function signature for the function with name 'ceiling' matches the specified arguments. The function signatures considered are: ceiling(Edm.Double); ceiling(Edm.Decimal); ceiling(Edm.Double Nullable=true); ceiling(Edm.Decimal Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>floor(ya_mytext) eq 0
+No function signature for the function with name 'floor' matches the specified arguments. The function signatures considered are: floor(Edm.Double); floor(Edm.Decimal); floor(Edm.Double Nullable=true); floor(Edm.Decimal Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>round(ya_mytext) eq 0
+No function signature for the function with name 'round' matches the specified arguments. The function signatures considered are: round(Edm.Double); round(Edm.Decimal); round(Edm.Double Nullable=true); round(Edm.Decimal Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>isof(NorthwindModel.Order)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>isof(ya_mytext)
+Cast or IsOf Function must have a type in its arguments.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>isof(ShipCountry,Edm.String)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>isof(ya_mytext, Edm.String)
+The "isof" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>geo.distance(geography'POINT(-122.131577 47.678581)', geography'POINT(-122.131577 47.678581)') le 10
+The "geo.distance" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>geo.intersects(Position,TargetArea)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>geo.intersects(geography'POINT(-122.131577 47.678581)', geography'POLYGON((-122.031577 47.578581, -122.031577 47.678581, -122.131577 47.678581, -122.031577 47.578581))')
+The "geo.intersects" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>geo.length()
+No function signature for the function with name 'geo.length' matches the specified arguments. The function signatures considered are: geo.length(Edm.GeometryLineString Nullable=true); geo.length(Edm.GeographyLineString Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>substringof(ya_mytext, 'Quisque')
+An unknown function with name 'substringof' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -873,7 +1159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -978,13 +1264,35 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1004,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,6 +1342,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1352,184 +1669,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F1B36-E3DB-8E4A-9C96-A6B03BE0B94E}">
   <dimension ref="A2:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y103" sqref="Y103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="69.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="2.85546875" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="2.85546875" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.3046875" customWidth="1"/>
+    <col min="2" max="2" width="52.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="24" width="3.07421875" customWidth="1"/>
+    <col min="25" max="25" width="93.23046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" customWidth="1"/>
+    <col min="27" max="31" width="3.07421875" customWidth="1"/>
+    <col min="32" max="32" width="10.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" s="9" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="9" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A22" s="6"/>
       <c r="D22" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -1538,96 +1844,180 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" t="s">
+        <v>150</v>
+      </c>
+      <c r="N23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>154</v>
+      </c>
+      <c r="R23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S23" t="s">
+        <v>156</v>
+      </c>
+      <c r="T23" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" t="s">
+        <v>158</v>
+      </c>
+      <c r="V23" t="s">
+        <v>159</v>
+      </c>
+      <c r="W23" t="s">
+        <v>160</v>
+      </c>
+      <c r="X23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD23" t="s">
         <v>166</v>
       </c>
-      <c r="E23" t="s">
+      <c r="AE23" t="s">
         <v>167</v>
       </c>
-      <c r="F23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" t="s">
-        <v>172</v>
-      </c>
-      <c r="L23" t="s">
-        <v>167</v>
-      </c>
-      <c r="M23" t="s">
-        <v>173</v>
-      </c>
-      <c r="N23" t="s">
-        <v>174</v>
-      </c>
-      <c r="O23" t="s">
-        <v>175</v>
-      </c>
-      <c r="P23" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>177</v>
-      </c>
-      <c r="R23" t="s">
-        <v>178</v>
-      </c>
-      <c r="S23" t="s">
-        <v>179</v>
-      </c>
-      <c r="T23" t="s">
-        <v>180</v>
-      </c>
-      <c r="U23" t="s">
-        <v>181</v>
-      </c>
-      <c r="V23" t="s">
-        <v>182</v>
-      </c>
-      <c r="W23" t="s">
-        <v>183</v>
-      </c>
-      <c r="X23" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>139</v>
+      </c>
+      <c r="R24" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24" t="s">
+        <v>139</v>
+      </c>
+      <c r="U24" t="s">
+        <v>139</v>
+      </c>
+      <c r="V24" t="s">
+        <v>139</v>
+      </c>
+      <c r="W24" t="s">
+        <v>139</v>
+      </c>
+      <c r="X24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,14 +2027,89 @@
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>139</v>
+      </c>
+      <c r="R25" t="s">
+        <v>139</v>
+      </c>
+      <c r="S25" t="s">
+        <v>139</v>
+      </c>
+      <c r="T25" t="s">
+        <v>139</v>
+      </c>
+      <c r="U25" t="s">
+        <v>139</v>
+      </c>
+      <c r="V25" t="s">
+        <v>139</v>
+      </c>
+      <c r="W25" t="s">
+        <v>139</v>
+      </c>
+      <c r="X25" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1654,14 +2119,89 @@
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" t="s">
+        <v>139</v>
+      </c>
+      <c r="N26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>139</v>
+      </c>
+      <c r="R26" t="s">
+        <v>139</v>
+      </c>
+      <c r="S26" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" t="s">
+        <v>139</v>
+      </c>
+      <c r="U26" t="s">
+        <v>139</v>
+      </c>
+      <c r="V26" t="s">
+        <v>139</v>
+      </c>
+      <c r="W26" t="s">
+        <v>139</v>
+      </c>
+      <c r="X26" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1671,8 +2211,89 @@
       <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>139</v>
+      </c>
+      <c r="R27" t="s">
+        <v>139</v>
+      </c>
+      <c r="S27" t="s">
+        <v>139</v>
+      </c>
+      <c r="T27" t="s">
+        <v>139</v>
+      </c>
+      <c r="U27" t="s">
+        <v>139</v>
+      </c>
+      <c r="V27" t="s">
+        <v>139</v>
+      </c>
+      <c r="W27" t="s">
+        <v>139</v>
+      </c>
+      <c r="X27" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -1682,14 +2303,89 @@
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" t="s">
+        <v>139</v>
+      </c>
+      <c r="N28" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>139</v>
+      </c>
+      <c r="R28" t="s">
+        <v>139</v>
+      </c>
+      <c r="S28" t="s">
+        <v>139</v>
+      </c>
+      <c r="T28" t="s">
+        <v>139</v>
+      </c>
+      <c r="U28" t="s">
+        <v>139</v>
+      </c>
+      <c r="V28" t="s">
+        <v>139</v>
+      </c>
+      <c r="W28" t="s">
+        <v>139</v>
+      </c>
+      <c r="X28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1699,8 +2395,89 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>139</v>
+      </c>
+      <c r="R29" t="s">
+        <v>139</v>
+      </c>
+      <c r="S29" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U29" t="s">
+        <v>139</v>
+      </c>
+      <c r="V29" t="s">
+        <v>139</v>
+      </c>
+      <c r="W29" t="s">
+        <v>139</v>
+      </c>
+      <c r="X29" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -1710,14 +2487,89 @@
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" t="s">
+        <v>139</v>
+      </c>
+      <c r="N30" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>139</v>
+      </c>
+      <c r="R30" t="s">
+        <v>139</v>
+      </c>
+      <c r="S30" t="s">
+        <v>139</v>
+      </c>
+      <c r="T30" t="s">
+        <v>139</v>
+      </c>
+      <c r="U30" t="s">
+        <v>139</v>
+      </c>
+      <c r="V30" t="s">
+        <v>139</v>
+      </c>
+      <c r="W30" t="s">
+        <v>139</v>
+      </c>
+      <c r="X30" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="100" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1727,8 +2579,89 @@
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" t="s">
+        <v>139</v>
+      </c>
+      <c r="N31" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>139</v>
+      </c>
+      <c r="R31" t="s">
+        <v>139</v>
+      </c>
+      <c r="S31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T31" t="s">
+        <v>139</v>
+      </c>
+      <c r="U31" t="s">
+        <v>139</v>
+      </c>
+      <c r="V31" t="s">
+        <v>139</v>
+      </c>
+      <c r="W31" t="s">
+        <v>139</v>
+      </c>
+      <c r="X31" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1738,19 +2671,94 @@
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" t="s">
+        <v>139</v>
+      </c>
+      <c r="O32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>139</v>
+      </c>
+      <c r="R32" t="s">
+        <v>139</v>
+      </c>
+      <c r="S32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T32" t="s">
+        <v>139</v>
+      </c>
+      <c r="U32" t="s">
+        <v>139</v>
+      </c>
+      <c r="V32" t="s">
+        <v>139</v>
+      </c>
+      <c r="W32" t="s">
+        <v>139</v>
+      </c>
+      <c r="X32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -1760,20 +2768,89 @@
       <c r="C34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M34" t="s">
+        <v>139</v>
+      </c>
+      <c r="N34" t="s">
+        <v>139</v>
+      </c>
+      <c r="O34" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>139</v>
+      </c>
+      <c r="R34" t="s">
+        <v>139</v>
+      </c>
+      <c r="S34" t="s">
+        <v>139</v>
+      </c>
+      <c r="T34" t="s">
+        <v>139</v>
+      </c>
+      <c r="U34" t="s">
+        <v>139</v>
+      </c>
+      <c r="V34" t="s">
+        <v>139</v>
+      </c>
+      <c r="W34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X34" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1783,14 +2860,89 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" t="s">
+        <v>139</v>
+      </c>
+      <c r="M35" t="s">
+        <v>139</v>
+      </c>
+      <c r="N35" t="s">
+        <v>139</v>
+      </c>
+      <c r="O35" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>139</v>
+      </c>
+      <c r="R35" t="s">
+        <v>139</v>
+      </c>
+      <c r="S35" t="s">
+        <v>139</v>
+      </c>
+      <c r="T35" t="s">
+        <v>139</v>
+      </c>
+      <c r="U35" t="s">
+        <v>139</v>
+      </c>
+      <c r="V35" t="s">
+        <v>139</v>
+      </c>
+      <c r="W35" t="s">
+        <v>139</v>
+      </c>
+      <c r="X35" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1800,19 +2952,94 @@
       <c r="C36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" t="s">
+        <v>139</v>
+      </c>
+      <c r="M36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N36" t="s">
+        <v>139</v>
+      </c>
+      <c r="O36" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>139</v>
+      </c>
+      <c r="R36" t="s">
+        <v>139</v>
+      </c>
+      <c r="S36" t="s">
+        <v>139</v>
+      </c>
+      <c r="T36" t="s">
+        <v>139</v>
+      </c>
+      <c r="U36" t="s">
+        <v>139</v>
+      </c>
+      <c r="V36" t="s">
+        <v>139</v>
+      </c>
+      <c r="W36" t="s">
+        <v>139</v>
+      </c>
+      <c r="X36" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1822,14 +3049,89 @@
       <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s">
+        <v>139</v>
+      </c>
+      <c r="M38" t="s">
+        <v>139</v>
+      </c>
+      <c r="N38" t="s">
+        <v>139</v>
+      </c>
+      <c r="O38" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>139</v>
+      </c>
+      <c r="R38" t="s">
+        <v>139</v>
+      </c>
+      <c r="S38" t="s">
+        <v>139</v>
+      </c>
+      <c r="T38" t="s">
+        <v>139</v>
+      </c>
+      <c r="U38" t="s">
+        <v>139</v>
+      </c>
+      <c r="V38" t="s">
+        <v>139</v>
+      </c>
+      <c r="W38" t="s">
+        <v>139</v>
+      </c>
+      <c r="X38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y38" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -1839,14 +3141,89 @@
       <c r="C39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M39" t="s">
+        <v>139</v>
+      </c>
+      <c r="N39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>139</v>
+      </c>
+      <c r="R39" t="s">
+        <v>139</v>
+      </c>
+      <c r="S39" t="s">
+        <v>139</v>
+      </c>
+      <c r="T39" t="s">
+        <v>139</v>
+      </c>
+      <c r="U39" t="s">
+        <v>139</v>
+      </c>
+      <c r="V39" t="s">
+        <v>139</v>
+      </c>
+      <c r="W39" t="s">
+        <v>139</v>
+      </c>
+      <c r="X39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1856,14 +3233,89 @@
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J40" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" t="s">
+        <v>139</v>
+      </c>
+      <c r="M40" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>139</v>
+      </c>
+      <c r="R40" t="s">
+        <v>139</v>
+      </c>
+      <c r="S40" t="s">
+        <v>139</v>
+      </c>
+      <c r="T40" t="s">
+        <v>139</v>
+      </c>
+      <c r="U40" t="s">
+        <v>139</v>
+      </c>
+      <c r="V40" t="s">
+        <v>139</v>
+      </c>
+      <c r="W40" t="s">
+        <v>139</v>
+      </c>
+      <c r="X40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1873,14 +3325,89 @@
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" t="s">
+        <v>139</v>
+      </c>
+      <c r="M41" t="s">
+        <v>139</v>
+      </c>
+      <c r="N41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>139</v>
+      </c>
+      <c r="R41" t="s">
+        <v>139</v>
+      </c>
+      <c r="S41" t="s">
+        <v>139</v>
+      </c>
+      <c r="T41" t="s">
+        <v>139</v>
+      </c>
+      <c r="U41" t="s">
+        <v>139</v>
+      </c>
+      <c r="V41" t="s">
+        <v>139</v>
+      </c>
+      <c r="W41" t="s">
+        <v>139</v>
+      </c>
+      <c r="X41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -1890,14 +3417,89 @@
       <c r="C42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" t="s">
+        <v>139</v>
+      </c>
+      <c r="J42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" t="s">
+        <v>139</v>
+      </c>
+      <c r="M42" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" t="s">
+        <v>139</v>
+      </c>
+      <c r="O42" t="s">
+        <v>139</v>
+      </c>
+      <c r="P42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>139</v>
+      </c>
+      <c r="R42" t="s">
+        <v>139</v>
+      </c>
+      <c r="S42" t="s">
+        <v>139</v>
+      </c>
+      <c r="T42" t="s">
+        <v>139</v>
+      </c>
+      <c r="U42" t="s">
+        <v>139</v>
+      </c>
+      <c r="V42" t="s">
+        <v>139</v>
+      </c>
+      <c r="W42" t="s">
+        <v>139</v>
+      </c>
+      <c r="X42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y42" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1907,19 +3509,94 @@
       <c r="C43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" t="s">
+        <v>139</v>
+      </c>
+      <c r="L43" t="s">
+        <v>139</v>
+      </c>
+      <c r="M43" t="s">
+        <v>139</v>
+      </c>
+      <c r="N43" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>139</v>
+      </c>
+      <c r="R43" t="s">
+        <v>139</v>
+      </c>
+      <c r="S43" t="s">
+        <v>139</v>
+      </c>
+      <c r="T43" t="s">
+        <v>139</v>
+      </c>
+      <c r="U43" t="s">
+        <v>139</v>
+      </c>
+      <c r="V43" t="s">
+        <v>139</v>
+      </c>
+      <c r="W43" t="s">
+        <v>139</v>
+      </c>
+      <c r="X43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
@@ -1929,60 +3606,138 @@
       <c r="C45" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" t="s">
+        <v>139</v>
+      </c>
+      <c r="O45" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>139</v>
+      </c>
+      <c r="R45" t="s">
+        <v>139</v>
+      </c>
+      <c r="S45" t="s">
+        <v>139</v>
+      </c>
+      <c r="T45" t="s">
+        <v>139</v>
+      </c>
+      <c r="U45" t="s">
+        <v>139</v>
+      </c>
+      <c r="V45" t="s">
+        <v>139</v>
+      </c>
+      <c r="W45" t="s">
+        <v>139</v>
+      </c>
+      <c r="X45" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A49" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A52" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A53" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A54" s="7"/>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -1990,594 +3745,3706 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" t="s">
+        <v>150</v>
+      </c>
+      <c r="N55" t="s">
+        <v>151</v>
+      </c>
+      <c r="O55" t="s">
+        <v>152</v>
+      </c>
+      <c r="P55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>154</v>
+      </c>
+      <c r="R55" t="s">
+        <v>155</v>
+      </c>
+      <c r="S55" t="s">
+        <v>156</v>
+      </c>
+      <c r="T55" t="s">
+        <v>157</v>
+      </c>
+      <c r="U55" t="s">
+        <v>158</v>
+      </c>
+      <c r="V55" t="s">
+        <v>159</v>
+      </c>
+      <c r="W55" t="s">
+        <v>160</v>
+      </c>
+      <c r="X55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD55" t="s">
         <v>166</v>
       </c>
-      <c r="E55" t="s">
+      <c r="AE55" t="s">
         <v>167</v>
       </c>
-      <c r="F55" t="s">
-        <v>168</v>
-      </c>
-      <c r="G55" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" t="s">
-        <v>170</v>
-      </c>
-      <c r="I55" t="s">
-        <v>166</v>
-      </c>
-      <c r="J55" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55" t="s">
-        <v>172</v>
-      </c>
-      <c r="L55" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" t="s">
-        <v>173</v>
-      </c>
-      <c r="N55" t="s">
-        <v>174</v>
-      </c>
-      <c r="O55" t="s">
-        <v>175</v>
-      </c>
-      <c r="P55" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>177</v>
-      </c>
-      <c r="R55" t="s">
-        <v>178</v>
-      </c>
-      <c r="S55" t="s">
-        <v>179</v>
-      </c>
-      <c r="T55" t="s">
-        <v>180</v>
-      </c>
-      <c r="U55" t="s">
-        <v>181</v>
-      </c>
-      <c r="V55" t="s">
-        <v>182</v>
-      </c>
-      <c r="W55" t="s">
-        <v>183</v>
-      </c>
-      <c r="X55" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31">
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" t="s">
+        <v>139</v>
+      </c>
+      <c r="J57" t="s">
+        <v>139</v>
+      </c>
+      <c r="K57" t="s">
+        <v>139</v>
+      </c>
+      <c r="L57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M57" t="s">
+        <v>139</v>
+      </c>
+      <c r="N57" t="s">
+        <v>139</v>
+      </c>
+      <c r="O57" t="s">
+        <v>139</v>
+      </c>
+      <c r="P57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>139</v>
+      </c>
+      <c r="R57" t="s">
+        <v>139</v>
+      </c>
+      <c r="S57" t="s">
+        <v>139</v>
+      </c>
+      <c r="T57" t="s">
+        <v>139</v>
+      </c>
+      <c r="U57" t="s">
+        <v>139</v>
+      </c>
+      <c r="V57" t="s">
+        <v>139</v>
+      </c>
+      <c r="W57" t="s">
+        <v>139</v>
+      </c>
+      <c r="X57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" t="s">
+        <v>139</v>
+      </c>
+      <c r="I58" t="s">
+        <v>139</v>
+      </c>
+      <c r="J58" t="s">
+        <v>139</v>
+      </c>
+      <c r="K58" t="s">
+        <v>139</v>
+      </c>
+      <c r="L58" t="s">
+        <v>139</v>
+      </c>
+      <c r="M58" t="s">
+        <v>139</v>
+      </c>
+      <c r="N58" t="s">
+        <v>139</v>
+      </c>
+      <c r="O58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>139</v>
+      </c>
+      <c r="R58" t="s">
+        <v>139</v>
+      </c>
+      <c r="S58" t="s">
+        <v>139</v>
+      </c>
+      <c r="T58" t="s">
+        <v>139</v>
+      </c>
+      <c r="U58" t="s">
+        <v>139</v>
+      </c>
+      <c r="V58" t="s">
+        <v>139</v>
+      </c>
+      <c r="W58" t="s">
+        <v>139</v>
+      </c>
+      <c r="X58" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="D59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" t="s">
+        <v>139</v>
+      </c>
+      <c r="J59" t="s">
+        <v>139</v>
+      </c>
+      <c r="K59" t="s">
+        <v>139</v>
+      </c>
+      <c r="L59" t="s">
+        <v>139</v>
+      </c>
+      <c r="M59" t="s">
+        <v>139</v>
+      </c>
+      <c r="N59" t="s">
+        <v>139</v>
+      </c>
+      <c r="O59" t="s">
+        <v>139</v>
+      </c>
+      <c r="P59" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>139</v>
+      </c>
+      <c r="R59" t="s">
+        <v>139</v>
+      </c>
+      <c r="S59" t="s">
+        <v>139</v>
+      </c>
+      <c r="T59" t="s">
+        <v>139</v>
+      </c>
+      <c r="U59" t="s">
+        <v>139</v>
+      </c>
+      <c r="V59" t="s">
+        <v>139</v>
+      </c>
+      <c r="W59" t="s">
+        <v>139</v>
+      </c>
+      <c r="X59" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" t="s">
+        <v>139</v>
+      </c>
+      <c r="J60" t="s">
+        <v>139</v>
+      </c>
+      <c r="K60" t="s">
+        <v>139</v>
+      </c>
+      <c r="L60" t="s">
+        <v>139</v>
+      </c>
+      <c r="M60" t="s">
+        <v>139</v>
+      </c>
+      <c r="N60" t="s">
+        <v>139</v>
+      </c>
+      <c r="O60" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>139</v>
+      </c>
+      <c r="R60" t="s">
+        <v>139</v>
+      </c>
+      <c r="S60" t="s">
+        <v>139</v>
+      </c>
+      <c r="T60" t="s">
+        <v>139</v>
+      </c>
+      <c r="U60" t="s">
+        <v>139</v>
+      </c>
+      <c r="V60" t="s">
+        <v>139</v>
+      </c>
+      <c r="W60" t="s">
+        <v>139</v>
+      </c>
+      <c r="X60" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" t="s">
+        <v>139</v>
+      </c>
+      <c r="I61" t="s">
+        <v>139</v>
+      </c>
+      <c r="J61" t="s">
+        <v>139</v>
+      </c>
+      <c r="K61" t="s">
+        <v>139</v>
+      </c>
+      <c r="L61" t="s">
+        <v>139</v>
+      </c>
+      <c r="M61" t="s">
+        <v>139</v>
+      </c>
+      <c r="N61" t="s">
+        <v>139</v>
+      </c>
+      <c r="O61" t="s">
+        <v>139</v>
+      </c>
+      <c r="P61" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>139</v>
+      </c>
+      <c r="R61" t="s">
+        <v>139</v>
+      </c>
+      <c r="S61" t="s">
+        <v>139</v>
+      </c>
+      <c r="T61" t="s">
+        <v>139</v>
+      </c>
+      <c r="U61" t="s">
+        <v>139</v>
+      </c>
+      <c r="V61" t="s">
+        <v>139</v>
+      </c>
+      <c r="W61" t="s">
+        <v>139</v>
+      </c>
+      <c r="X61" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y61" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" t="s">
+        <v>139</v>
+      </c>
+      <c r="I62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J62" t="s">
+        <v>139</v>
+      </c>
+      <c r="K62" t="s">
+        <v>139</v>
+      </c>
+      <c r="L62" t="s">
+        <v>139</v>
+      </c>
+      <c r="M62" t="s">
+        <v>139</v>
+      </c>
+      <c r="N62" t="s">
+        <v>139</v>
+      </c>
+      <c r="O62" t="s">
+        <v>139</v>
+      </c>
+      <c r="P62" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>139</v>
+      </c>
+      <c r="R62" t="s">
+        <v>139</v>
+      </c>
+      <c r="S62" t="s">
+        <v>139</v>
+      </c>
+      <c r="T62" t="s">
+        <v>139</v>
+      </c>
+      <c r="U62" t="s">
+        <v>139</v>
+      </c>
+      <c r="V62" t="s">
+        <v>139</v>
+      </c>
+      <c r="W62" t="s">
+        <v>139</v>
+      </c>
+      <c r="X62" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" t="s">
+        <v>139</v>
+      </c>
+      <c r="J63" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" t="s">
+        <v>139</v>
+      </c>
+      <c r="L63" t="s">
+        <v>139</v>
+      </c>
+      <c r="M63" t="s">
+        <v>139</v>
+      </c>
+      <c r="N63" t="s">
+        <v>139</v>
+      </c>
+      <c r="O63" t="s">
+        <v>139</v>
+      </c>
+      <c r="P63" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>139</v>
+      </c>
+      <c r="R63" t="s">
+        <v>139</v>
+      </c>
+      <c r="S63" t="s">
+        <v>139</v>
+      </c>
+      <c r="T63" t="s">
+        <v>139</v>
+      </c>
+      <c r="U63" t="s">
+        <v>139</v>
+      </c>
+      <c r="V63" t="s">
+        <v>139</v>
+      </c>
+      <c r="W63" t="s">
+        <v>139</v>
+      </c>
+      <c r="X63" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y63" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A65" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
-      <c r="A65" s="3" t="s">
+      <c r="B65" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" t="s">
+        <v>139</v>
+      </c>
+      <c r="I65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J65" t="s">
+        <v>139</v>
+      </c>
+      <c r="K65" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65" t="s">
+        <v>139</v>
+      </c>
+      <c r="M65" t="s">
+        <v>139</v>
+      </c>
+      <c r="N65" t="s">
+        <v>139</v>
+      </c>
+      <c r="O65" t="s">
+        <v>139</v>
+      </c>
+      <c r="P65" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>139</v>
+      </c>
+      <c r="R65" t="s">
+        <v>139</v>
+      </c>
+      <c r="S65" t="s">
+        <v>139</v>
+      </c>
+      <c r="T65" t="s">
+        <v>139</v>
+      </c>
+      <c r="U65" t="s">
+        <v>139</v>
+      </c>
+      <c r="V65" t="s">
+        <v>139</v>
+      </c>
+      <c r="W65" t="s">
+        <v>139</v>
+      </c>
+      <c r="X65" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" t="s">
+        <v>139</v>
+      </c>
+      <c r="I66" t="s">
+        <v>139</v>
+      </c>
+      <c r="J66" t="s">
+        <v>139</v>
+      </c>
+      <c r="K66" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" t="s">
+        <v>139</v>
+      </c>
+      <c r="M66" t="s">
+        <v>139</v>
+      </c>
+      <c r="N66" t="s">
+        <v>139</v>
+      </c>
+      <c r="O66" t="s">
+        <v>139</v>
+      </c>
+      <c r="P66" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>139</v>
+      </c>
+      <c r="R66" t="s">
+        <v>139</v>
+      </c>
+      <c r="S66" t="s">
+        <v>139</v>
+      </c>
+      <c r="T66" t="s">
+        <v>139</v>
+      </c>
+      <c r="U66" t="s">
+        <v>139</v>
+      </c>
+      <c r="V66" t="s">
+        <v>139</v>
+      </c>
+      <c r="W66" t="s">
+        <v>139</v>
+      </c>
+      <c r="X66" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y66" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
-      <c r="A66" s="3" t="s">
+    </row>
+    <row r="68" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B68" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" t="s">
+        <v>139</v>
+      </c>
+      <c r="I68" t="s">
+        <v>139</v>
+      </c>
+      <c r="J68" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" t="s">
+        <v>139</v>
+      </c>
+      <c r="M68" t="s">
+        <v>139</v>
+      </c>
+      <c r="N68" t="s">
+        <v>139</v>
+      </c>
+      <c r="O68" t="s">
+        <v>139</v>
+      </c>
+      <c r="P68" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>139</v>
+      </c>
+      <c r="R68" t="s">
+        <v>139</v>
+      </c>
+      <c r="S68" t="s">
+        <v>139</v>
+      </c>
+      <c r="T68" t="s">
+        <v>139</v>
+      </c>
+      <c r="U68" t="s">
+        <v>139</v>
+      </c>
+      <c r="V68" t="s">
+        <v>139</v>
+      </c>
+      <c r="W68" t="s">
+        <v>139</v>
+      </c>
+      <c r="X68" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y68" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A69" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
-      <c r="A67" s="1" t="s">
+      <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" t="s">
+        <v>139</v>
+      </c>
+      <c r="H69" t="s">
+        <v>139</v>
+      </c>
+      <c r="I69" t="s">
+        <v>139</v>
+      </c>
+      <c r="J69" t="s">
+        <v>139</v>
+      </c>
+      <c r="K69" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" t="s">
+        <v>139</v>
+      </c>
+      <c r="M69" t="s">
+        <v>139</v>
+      </c>
+      <c r="N69" t="s">
+        <v>139</v>
+      </c>
+      <c r="O69" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>139</v>
+      </c>
+      <c r="R69" t="s">
+        <v>139</v>
+      </c>
+      <c r="S69" t="s">
+        <v>139</v>
+      </c>
+      <c r="T69" t="s">
+        <v>139</v>
+      </c>
+      <c r="U69" t="s">
+        <v>139</v>
+      </c>
+      <c r="V69" t="s">
+        <v>139</v>
+      </c>
+      <c r="W69" t="s">
+        <v>139</v>
+      </c>
+      <c r="X69" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y69" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A70" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
-      <c r="A68" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" t="s">
+        <v>139</v>
+      </c>
+      <c r="J70" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70" t="s">
+        <v>139</v>
+      </c>
+      <c r="M70" t="s">
+        <v>139</v>
+      </c>
+      <c r="N70" t="s">
+        <v>139</v>
+      </c>
+      <c r="O70" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>139</v>
+      </c>
+      <c r="R70" t="s">
+        <v>139</v>
+      </c>
+      <c r="S70" t="s">
+        <v>139</v>
+      </c>
+      <c r="T70" t="s">
+        <v>139</v>
+      </c>
+      <c r="U70" t="s">
+        <v>139</v>
+      </c>
+      <c r="V70" t="s">
+        <v>139</v>
+      </c>
+      <c r="W70" t="s">
+        <v>139</v>
+      </c>
+      <c r="X70" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y70" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
-      <c r="A69" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" t="s">
+        <v>139</v>
+      </c>
+      <c r="I71" t="s">
+        <v>139</v>
+      </c>
+      <c r="J71" t="s">
+        <v>139</v>
+      </c>
+      <c r="K71" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" t="s">
+        <v>139</v>
+      </c>
+      <c r="M71" t="s">
+        <v>139</v>
+      </c>
+      <c r="N71" t="s">
+        <v>139</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>139</v>
+      </c>
+      <c r="R71" t="s">
+        <v>139</v>
+      </c>
+      <c r="S71" t="s">
+        <v>139</v>
+      </c>
+      <c r="T71" t="s">
+        <v>139</v>
+      </c>
+      <c r="U71" t="s">
+        <v>139</v>
+      </c>
+      <c r="V71" t="s">
+        <v>139</v>
+      </c>
+      <c r="W71" t="s">
+        <v>139</v>
+      </c>
+      <c r="X71" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y71" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
-      <c r="A70" s="3" t="s">
+    </row>
+    <row r="73" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A73" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B73" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" t="s">
+        <v>139</v>
+      </c>
+      <c r="H73" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" t="s">
+        <v>139</v>
+      </c>
+      <c r="J73" t="s">
+        <v>139</v>
+      </c>
+      <c r="K73" t="s">
+        <v>139</v>
+      </c>
+      <c r="L73" t="s">
+        <v>139</v>
+      </c>
+      <c r="M73" t="s">
+        <v>139</v>
+      </c>
+      <c r="N73" t="s">
+        <v>139</v>
+      </c>
+      <c r="O73" t="s">
+        <v>139</v>
+      </c>
+      <c r="P73" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>139</v>
+      </c>
+      <c r="R73" t="s">
+        <v>139</v>
+      </c>
+      <c r="S73" t="s">
+        <v>139</v>
+      </c>
+      <c r="T73" t="s">
+        <v>139</v>
+      </c>
+      <c r="U73" t="s">
+        <v>139</v>
+      </c>
+      <c r="V73" t="s">
+        <v>139</v>
+      </c>
+      <c r="W73" t="s">
+        <v>139</v>
+      </c>
+      <c r="X73" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y73" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A74" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="D74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" t="s">
+        <v>139</v>
+      </c>
+      <c r="H74" t="s">
+        <v>139</v>
+      </c>
+      <c r="I74" t="s">
+        <v>139</v>
+      </c>
+      <c r="J74" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74" t="s">
+        <v>139</v>
+      </c>
+      <c r="L74" t="s">
+        <v>139</v>
+      </c>
+      <c r="M74" t="s">
+        <v>139</v>
+      </c>
+      <c r="N74" t="s">
+        <v>139</v>
+      </c>
+      <c r="O74" t="s">
+        <v>139</v>
+      </c>
+      <c r="P74" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>139</v>
+      </c>
+      <c r="R74" t="s">
+        <v>139</v>
+      </c>
+      <c r="S74" t="s">
+        <v>139</v>
+      </c>
+      <c r="T74" t="s">
+        <v>139</v>
+      </c>
+      <c r="U74" t="s">
+        <v>139</v>
+      </c>
+      <c r="V74" t="s">
+        <v>139</v>
+      </c>
+      <c r="W74" t="s">
+        <v>139</v>
+      </c>
+      <c r="X74" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" ht="100" x14ac:dyDescent="0.6">
+      <c r="A75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
-      <c r="A72" s="1" t="s">
+      <c r="B75" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" t="s">
+        <v>139</v>
+      </c>
+      <c r="H75" t="s">
+        <v>139</v>
+      </c>
+      <c r="I75" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" t="s">
+        <v>139</v>
+      </c>
+      <c r="K75" t="s">
+        <v>139</v>
+      </c>
+      <c r="L75" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" t="s">
+        <v>139</v>
+      </c>
+      <c r="N75" t="s">
+        <v>139</v>
+      </c>
+      <c r="O75" t="s">
+        <v>139</v>
+      </c>
+      <c r="P75" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>139</v>
+      </c>
+      <c r="R75" t="s">
+        <v>139</v>
+      </c>
+      <c r="S75" t="s">
+        <v>139</v>
+      </c>
+      <c r="T75" t="s">
+        <v>139</v>
+      </c>
+      <c r="U75" t="s">
+        <v>139</v>
+      </c>
+      <c r="V75" t="s">
+        <v>139</v>
+      </c>
+      <c r="W75" t="s">
+        <v>139</v>
+      </c>
+      <c r="X75" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y75" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="100" x14ac:dyDescent="0.6">
+      <c r="A76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" t="s">
+        <v>139</v>
+      </c>
+      <c r="H76" t="s">
+        <v>139</v>
+      </c>
+      <c r="I76" t="s">
+        <v>139</v>
+      </c>
+      <c r="J76" t="s">
+        <v>139</v>
+      </c>
+      <c r="K76" t="s">
+        <v>139</v>
+      </c>
+      <c r="L76" t="s">
+        <v>139</v>
+      </c>
+      <c r="M76" t="s">
+        <v>139</v>
+      </c>
+      <c r="N76" t="s">
+        <v>139</v>
+      </c>
+      <c r="O76" t="s">
+        <v>139</v>
+      </c>
+      <c r="P76" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>139</v>
+      </c>
+      <c r="R76" t="s">
+        <v>139</v>
+      </c>
+      <c r="S76" t="s">
+        <v>139</v>
+      </c>
+      <c r="T76" t="s">
+        <v>139</v>
+      </c>
+      <c r="U76" t="s">
+        <v>139</v>
+      </c>
+      <c r="V76" t="s">
+        <v>139</v>
+      </c>
+      <c r="W76" t="s">
+        <v>139</v>
+      </c>
+      <c r="X76" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y76" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I77" t="s">
+        <v>139</v>
+      </c>
+      <c r="J77" t="s">
+        <v>139</v>
+      </c>
+      <c r="K77" t="s">
+        <v>139</v>
+      </c>
+      <c r="L77" t="s">
+        <v>139</v>
+      </c>
+      <c r="M77" t="s">
+        <v>139</v>
+      </c>
+      <c r="N77" t="s">
+        <v>139</v>
+      </c>
+      <c r="O77" t="s">
+        <v>139</v>
+      </c>
+      <c r="P77" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>139</v>
+      </c>
+      <c r="R77" t="s">
+        <v>139</v>
+      </c>
+      <c r="S77" t="s">
+        <v>139</v>
+      </c>
+      <c r="T77" t="s">
+        <v>139</v>
+      </c>
+      <c r="U77" t="s">
+        <v>139</v>
+      </c>
+      <c r="V77" t="s">
+        <v>139</v>
+      </c>
+      <c r="W77" t="s">
+        <v>139</v>
+      </c>
+      <c r="X77" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y77" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A78" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" t="s">
+        <v>139</v>
+      </c>
+      <c r="H78" t="s">
+        <v>139</v>
+      </c>
+      <c r="I78" t="s">
+        <v>139</v>
+      </c>
+      <c r="J78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K78" t="s">
+        <v>139</v>
+      </c>
+      <c r="L78" t="s">
+        <v>139</v>
+      </c>
+      <c r="M78" t="s">
+        <v>139</v>
+      </c>
+      <c r="N78" t="s">
+        <v>139</v>
+      </c>
+      <c r="O78" t="s">
+        <v>139</v>
+      </c>
+      <c r="P78" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>139</v>
+      </c>
+      <c r="R78" t="s">
+        <v>139</v>
+      </c>
+      <c r="S78" t="s">
+        <v>139</v>
+      </c>
+      <c r="T78" t="s">
+        <v>139</v>
+      </c>
+      <c r="U78" t="s">
+        <v>139</v>
+      </c>
+      <c r="V78" t="s">
+        <v>139</v>
+      </c>
+      <c r="W78" t="s">
+        <v>139</v>
+      </c>
+      <c r="X78" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y78" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" ht="100" x14ac:dyDescent="0.6">
+      <c r="A79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" t="s">
+        <v>139</v>
+      </c>
+      <c r="H79" t="s">
+        <v>139</v>
+      </c>
+      <c r="I79" t="s">
+        <v>139</v>
+      </c>
+      <c r="J79" t="s">
+        <v>139</v>
+      </c>
+      <c r="K79" t="s">
+        <v>139</v>
+      </c>
+      <c r="L79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M79" t="s">
+        <v>139</v>
+      </c>
+      <c r="N79" t="s">
+        <v>139</v>
+      </c>
+      <c r="O79" t="s">
+        <v>139</v>
+      </c>
+      <c r="P79" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>139</v>
+      </c>
+      <c r="R79" t="s">
+        <v>139</v>
+      </c>
+      <c r="S79" t="s">
+        <v>139</v>
+      </c>
+      <c r="T79" t="s">
+        <v>139</v>
+      </c>
+      <c r="U79" t="s">
+        <v>139</v>
+      </c>
+      <c r="V79" t="s">
+        <v>139</v>
+      </c>
+      <c r="W79" t="s">
+        <v>139</v>
+      </c>
+      <c r="X79" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y79" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A80" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" t="s">
+        <v>139</v>
+      </c>
+      <c r="I80" t="s">
+        <v>139</v>
+      </c>
+      <c r="J80" t="s">
+        <v>139</v>
+      </c>
+      <c r="K80" t="s">
+        <v>139</v>
+      </c>
+      <c r="L80" t="s">
+        <v>139</v>
+      </c>
+      <c r="M80" t="s">
+        <v>139</v>
+      </c>
+      <c r="N80" t="s">
+        <v>139</v>
+      </c>
+      <c r="O80" t="s">
+        <v>139</v>
+      </c>
+      <c r="P80" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>139</v>
+      </c>
+      <c r="R80" t="s">
+        <v>139</v>
+      </c>
+      <c r="S80" t="s">
+        <v>139</v>
+      </c>
+      <c r="T80" t="s">
+        <v>139</v>
+      </c>
+      <c r="U80" t="s">
+        <v>139</v>
+      </c>
+      <c r="V80" t="s">
+        <v>139</v>
+      </c>
+      <c r="W80" t="s">
+        <v>139</v>
+      </c>
+      <c r="X80" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y80" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="s">
+        <v>139</v>
+      </c>
+      <c r="G81" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" t="s">
+        <v>139</v>
+      </c>
+      <c r="I81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J81" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81" t="s">
+        <v>139</v>
+      </c>
+      <c r="L81" t="s">
+        <v>139</v>
+      </c>
+      <c r="M81" t="s">
+        <v>139</v>
+      </c>
+      <c r="N81" t="s">
+        <v>139</v>
+      </c>
+      <c r="O81" t="s">
+        <v>139</v>
+      </c>
+      <c r="P81" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>139</v>
+      </c>
+      <c r="R81" t="s">
+        <v>139</v>
+      </c>
+      <c r="S81" t="s">
+        <v>139</v>
+      </c>
+      <c r="T81" t="s">
+        <v>139</v>
+      </c>
+      <c r="U81" t="s">
+        <v>139</v>
+      </c>
+      <c r="V81" t="s">
+        <v>139</v>
+      </c>
+      <c r="W81" t="s">
+        <v>139</v>
+      </c>
+      <c r="X81" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" ht="100" x14ac:dyDescent="0.6">
+      <c r="A82" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
-      <c r="A73" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
-      <c r="A74" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
-      <c r="A75" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
-      <c r="A76" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="D82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" t="s">
+        <v>139</v>
+      </c>
+      <c r="G82" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" t="s">
+        <v>139</v>
+      </c>
+      <c r="I82" t="s">
+        <v>139</v>
+      </c>
+      <c r="J82" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82" t="s">
+        <v>139</v>
+      </c>
+      <c r="L82" t="s">
+        <v>139</v>
+      </c>
+      <c r="M82" t="s">
+        <v>139</v>
+      </c>
+      <c r="N82" t="s">
+        <v>139</v>
+      </c>
+      <c r="O82" t="s">
+        <v>139</v>
+      </c>
+      <c r="P82" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>139</v>
+      </c>
+      <c r="R82" t="s">
+        <v>139</v>
+      </c>
+      <c r="S82" t="s">
+        <v>139</v>
+      </c>
+      <c r="T82" t="s">
+        <v>139</v>
+      </c>
+      <c r="U82" t="s">
+        <v>139</v>
+      </c>
+      <c r="V82" t="s">
+        <v>139</v>
+      </c>
+      <c r="W82" t="s">
+        <v>139</v>
+      </c>
+      <c r="X82" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A83" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
-      <c r="A77" s="3" t="s">
+      <c r="D83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" t="s">
+        <v>139</v>
+      </c>
+      <c r="H83" t="s">
+        <v>139</v>
+      </c>
+      <c r="I83" t="s">
+        <v>139</v>
+      </c>
+      <c r="J83" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83" t="s">
+        <v>139</v>
+      </c>
+      <c r="L83" t="s">
+        <v>139</v>
+      </c>
+      <c r="M83" t="s">
+        <v>139</v>
+      </c>
+      <c r="N83" t="s">
+        <v>139</v>
+      </c>
+      <c r="O83" t="s">
+        <v>139</v>
+      </c>
+      <c r="P83" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>139</v>
+      </c>
+      <c r="R83" t="s">
+        <v>139</v>
+      </c>
+      <c r="S83" t="s">
+        <v>139</v>
+      </c>
+      <c r="T83" t="s">
+        <v>139</v>
+      </c>
+      <c r="U83" t="s">
+        <v>139</v>
+      </c>
+      <c r="V83" t="s">
+        <v>139</v>
+      </c>
+      <c r="W83" t="s">
+        <v>139</v>
+      </c>
+      <c r="X83" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="D84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84" t="s">
+        <v>139</v>
+      </c>
+      <c r="I84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J84" t="s">
+        <v>139</v>
+      </c>
+      <c r="K84" t="s">
+        <v>139</v>
+      </c>
+      <c r="L84" t="s">
+        <v>139</v>
+      </c>
+      <c r="M84" t="s">
+        <v>139</v>
+      </c>
+      <c r="N84" t="s">
+        <v>139</v>
+      </c>
+      <c r="O84" t="s">
+        <v>139</v>
+      </c>
+      <c r="P84" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>139</v>
+      </c>
+      <c r="R84" t="s">
+        <v>139</v>
+      </c>
+      <c r="S84" t="s">
+        <v>139</v>
+      </c>
+      <c r="T84" t="s">
+        <v>139</v>
+      </c>
+      <c r="U84" t="s">
+        <v>139</v>
+      </c>
+      <c r="V84" t="s">
+        <v>139</v>
+      </c>
+      <c r="W84" t="s">
+        <v>139</v>
+      </c>
+      <c r="X84" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y84" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A85" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
-      <c r="A78" s="3" t="s">
+      <c r="D85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" t="s">
+        <v>139</v>
+      </c>
+      <c r="I85" t="s">
+        <v>139</v>
+      </c>
+      <c r="J85" t="s">
+        <v>139</v>
+      </c>
+      <c r="K85" t="s">
+        <v>139</v>
+      </c>
+      <c r="L85" t="s">
+        <v>139</v>
+      </c>
+      <c r="M85" t="s">
+        <v>139</v>
+      </c>
+      <c r="N85" t="s">
+        <v>139</v>
+      </c>
+      <c r="O85" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>139</v>
+      </c>
+      <c r="R85" t="s">
+        <v>139</v>
+      </c>
+      <c r="S85" t="s">
+        <v>139</v>
+      </c>
+      <c r="T85" t="s">
+        <v>139</v>
+      </c>
+      <c r="U85" t="s">
+        <v>139</v>
+      </c>
+      <c r="V85" t="s">
+        <v>139</v>
+      </c>
+      <c r="W85" t="s">
+        <v>139</v>
+      </c>
+      <c r="X85" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y85" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A86" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" t="s">
+        <v>139</v>
+      </c>
+      <c r="H86" t="s">
+        <v>139</v>
+      </c>
+      <c r="I86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J86" t="s">
+        <v>139</v>
+      </c>
+      <c r="K86" t="s">
+        <v>139</v>
+      </c>
+      <c r="L86" t="s">
+        <v>139</v>
+      </c>
+      <c r="M86" t="s">
+        <v>139</v>
+      </c>
+      <c r="N86" t="s">
+        <v>139</v>
+      </c>
+      <c r="O86" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>139</v>
+      </c>
+      <c r="R86" t="s">
+        <v>139</v>
+      </c>
+      <c r="S86" t="s">
+        <v>139</v>
+      </c>
+      <c r="T86" t="s">
+        <v>139</v>
+      </c>
+      <c r="U86" t="s">
+        <v>139</v>
+      </c>
+      <c r="V86" t="s">
+        <v>139</v>
+      </c>
+      <c r="W86" t="s">
+        <v>139</v>
+      </c>
+      <c r="X86" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y86" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A87" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
-      <c r="A79" s="3" t="s">
+    <row r="88" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A88" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B88" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" t="s">
+        <v>139</v>
+      </c>
+      <c r="H88" t="s">
+        <v>139</v>
+      </c>
+      <c r="I88" t="s">
+        <v>139</v>
+      </c>
+      <c r="J88" t="s">
+        <v>139</v>
+      </c>
+      <c r="K88" t="s">
+        <v>139</v>
+      </c>
+      <c r="L88" t="s">
+        <v>139</v>
+      </c>
+      <c r="M88" t="s">
+        <v>139</v>
+      </c>
+      <c r="N88" t="s">
+        <v>139</v>
+      </c>
+      <c r="O88" t="s">
+        <v>139</v>
+      </c>
+      <c r="P88" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>139</v>
+      </c>
+      <c r="R88" t="s">
+        <v>139</v>
+      </c>
+      <c r="S88" t="s">
+        <v>139</v>
+      </c>
+      <c r="T88" t="s">
+        <v>139</v>
+      </c>
+      <c r="U88" t="s">
+        <v>139</v>
+      </c>
+      <c r="V88" t="s">
+        <v>139</v>
+      </c>
+      <c r="W88" t="s">
+        <v>139</v>
+      </c>
+      <c r="X88" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y88" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A89" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
-      <c r="A80" s="3" t="s">
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" t="s">
+        <v>139</v>
+      </c>
+      <c r="H89" t="s">
+        <v>139</v>
+      </c>
+      <c r="I89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89" t="s">
+        <v>139</v>
+      </c>
+      <c r="L89" t="s">
+        <v>139</v>
+      </c>
+      <c r="M89" t="s">
+        <v>139</v>
+      </c>
+      <c r="N89" t="s">
+        <v>139</v>
+      </c>
+      <c r="O89" t="s">
+        <v>139</v>
+      </c>
+      <c r="P89" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>139</v>
+      </c>
+      <c r="R89" t="s">
+        <v>139</v>
+      </c>
+      <c r="S89" t="s">
+        <v>139</v>
+      </c>
+      <c r="T89" t="s">
+        <v>139</v>
+      </c>
+      <c r="U89" t="s">
+        <v>139</v>
+      </c>
+      <c r="V89" t="s">
+        <v>139</v>
+      </c>
+      <c r="W89" t="s">
+        <v>139</v>
+      </c>
+      <c r="X89" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y89" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A90" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="D90" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" t="s">
+        <v>139</v>
+      </c>
+      <c r="I90" t="s">
+        <v>139</v>
+      </c>
+      <c r="J90" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90" t="s">
+        <v>139</v>
+      </c>
+      <c r="L90" t="s">
+        <v>139</v>
+      </c>
+      <c r="M90" t="s">
+        <v>139</v>
+      </c>
+      <c r="N90" t="s">
+        <v>139</v>
+      </c>
+      <c r="O90" t="s">
+        <v>139</v>
+      </c>
+      <c r="P90" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>139</v>
+      </c>
+      <c r="R90" t="s">
+        <v>139</v>
+      </c>
+      <c r="S90" t="s">
+        <v>139</v>
+      </c>
+      <c r="T90" t="s">
+        <v>139</v>
+      </c>
+      <c r="U90" t="s">
+        <v>139</v>
+      </c>
+      <c r="V90" t="s">
+        <v>139</v>
+      </c>
+      <c r="W90" t="s">
+        <v>139</v>
+      </c>
+      <c r="X90" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y90" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A91" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="3" t="s">
+    </row>
+    <row r="92" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A92" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
-      <c r="A82" s="3" t="s">
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" t="s">
+        <v>139</v>
+      </c>
+      <c r="H92" t="s">
+        <v>139</v>
+      </c>
+      <c r="I92" t="s">
+        <v>139</v>
+      </c>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92" t="s">
+        <v>139</v>
+      </c>
+      <c r="L92" t="s">
+        <v>139</v>
+      </c>
+      <c r="M92" t="s">
+        <v>139</v>
+      </c>
+      <c r="N92" t="s">
+        <v>139</v>
+      </c>
+      <c r="O92" t="s">
+        <v>139</v>
+      </c>
+      <c r="P92" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>139</v>
+      </c>
+      <c r="R92" t="s">
+        <v>139</v>
+      </c>
+      <c r="S92" t="s">
+        <v>139</v>
+      </c>
+      <c r="T92" t="s">
+        <v>139</v>
+      </c>
+      <c r="U92" t="s">
+        <v>139</v>
+      </c>
+      <c r="V92" t="s">
+        <v>139</v>
+      </c>
+      <c r="W92" t="s">
+        <v>139</v>
+      </c>
+      <c r="X92" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A93" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
-      <c r="A83" s="3" t="s">
+      <c r="B93" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" t="s">
+        <v>139</v>
+      </c>
+      <c r="G93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" t="s">
+        <v>139</v>
+      </c>
+      <c r="I93" t="s">
+        <v>139</v>
+      </c>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K93" t="s">
+        <v>139</v>
+      </c>
+      <c r="L93" t="s">
+        <v>139</v>
+      </c>
+      <c r="M93" t="s">
+        <v>139</v>
+      </c>
+      <c r="N93" t="s">
+        <v>139</v>
+      </c>
+      <c r="O93" t="s">
+        <v>139</v>
+      </c>
+      <c r="P93" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>139</v>
+      </c>
+      <c r="R93" t="s">
+        <v>139</v>
+      </c>
+      <c r="S93" t="s">
+        <v>139</v>
+      </c>
+      <c r="T93" t="s">
+        <v>139</v>
+      </c>
+      <c r="U93" t="s">
+        <v>139</v>
+      </c>
+      <c r="V93" t="s">
+        <v>139</v>
+      </c>
+      <c r="W93" t="s">
+        <v>139</v>
+      </c>
+      <c r="X93" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y93" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A94" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" t="s">
+        <v>139</v>
+      </c>
+      <c r="H94" t="s">
+        <v>139</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M94" t="s">
+        <v>139</v>
+      </c>
+      <c r="N94" t="s">
+        <v>139</v>
+      </c>
+      <c r="O94" t="s">
+        <v>139</v>
+      </c>
+      <c r="P94" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>139</v>
+      </c>
+      <c r="R94" t="s">
+        <v>139</v>
+      </c>
+      <c r="S94" t="s">
+        <v>139</v>
+      </c>
+      <c r="T94" t="s">
+        <v>139</v>
+      </c>
+      <c r="U94" t="s">
+        <v>139</v>
+      </c>
+      <c r="V94" t="s">
+        <v>139</v>
+      </c>
+      <c r="W94" t="s">
+        <v>139</v>
+      </c>
+      <c r="X94" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y94" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A95" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="5" t="s">
+    </row>
+    <row r="96" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A96" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
-      <c r="A84" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="D96" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" t="s">
+        <v>139</v>
+      </c>
+      <c r="I96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+      <c r="K96" t="s">
+        <v>139</v>
+      </c>
+      <c r="L96" t="s">
+        <v>139</v>
+      </c>
+      <c r="M96" t="s">
+        <v>139</v>
+      </c>
+      <c r="N96" t="s">
+        <v>139</v>
+      </c>
+      <c r="O96" t="s">
+        <v>139</v>
+      </c>
+      <c r="P96" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>139</v>
+      </c>
+      <c r="R96" t="s">
+        <v>139</v>
+      </c>
+      <c r="S96" t="s">
+        <v>139</v>
+      </c>
+      <c r="T96" t="s">
+        <v>139</v>
+      </c>
+      <c r="U96" t="s">
+        <v>139</v>
+      </c>
+      <c r="V96" t="s">
+        <v>139</v>
+      </c>
+      <c r="W96" t="s">
+        <v>139</v>
+      </c>
+      <c r="X96" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y96" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A97" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="A85" s="3" t="s">
+      <c r="B97" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97" t="s">
+        <v>139</v>
+      </c>
+      <c r="H97" t="s">
+        <v>139</v>
+      </c>
+      <c r="I97" t="s">
+        <v>139</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+      <c r="K97" t="s">
+        <v>139</v>
+      </c>
+      <c r="L97" t="s">
+        <v>139</v>
+      </c>
+      <c r="M97" t="s">
+        <v>139</v>
+      </c>
+      <c r="N97" t="s">
+        <v>139</v>
+      </c>
+      <c r="O97" t="s">
+        <v>139</v>
+      </c>
+      <c r="P97" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>139</v>
+      </c>
+      <c r="R97" t="s">
+        <v>139</v>
+      </c>
+      <c r="S97" t="s">
+        <v>139</v>
+      </c>
+      <c r="T97" t="s">
+        <v>139</v>
+      </c>
+      <c r="U97" t="s">
+        <v>139</v>
+      </c>
+      <c r="V97" t="s">
+        <v>139</v>
+      </c>
+      <c r="W97" t="s">
+        <v>139</v>
+      </c>
+      <c r="X97" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y97" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A98" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="3" t="s">
+      <c r="D98" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G98" t="s">
+        <v>139</v>
+      </c>
+      <c r="H98" t="s">
+        <v>139</v>
+      </c>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98" t="s">
+        <v>139</v>
+      </c>
+      <c r="L98" t="s">
+        <v>139</v>
+      </c>
+      <c r="M98" t="s">
+        <v>139</v>
+      </c>
+      <c r="N98" t="s">
+        <v>139</v>
+      </c>
+      <c r="O98" t="s">
+        <v>139</v>
+      </c>
+      <c r="P98" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>139</v>
+      </c>
+      <c r="R98" t="s">
+        <v>139</v>
+      </c>
+      <c r="S98" t="s">
+        <v>139</v>
+      </c>
+      <c r="T98" t="s">
+        <v>139</v>
+      </c>
+      <c r="U98" t="s">
+        <v>139</v>
+      </c>
+      <c r="V98" t="s">
+        <v>139</v>
+      </c>
+      <c r="W98" t="s">
+        <v>139</v>
+      </c>
+      <c r="X98" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y98" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A99" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="5" t="s">
+    </row>
+    <row r="100" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A100" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
-      <c r="A92" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
-      <c r="A93" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="A94" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="A95" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="B100" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>206</v>
+      </c>
+      <c r="D100" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" t="s">
+        <v>139</v>
+      </c>
+      <c r="H100" t="s">
+        <v>139</v>
+      </c>
+      <c r="I100" t="s">
+        <v>139</v>
+      </c>
+      <c r="J100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K100" t="s">
+        <v>139</v>
+      </c>
+      <c r="L100" t="s">
+        <v>139</v>
+      </c>
+      <c r="M100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O100" t="s">
+        <v>139</v>
+      </c>
+      <c r="P100" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>139</v>
+      </c>
+      <c r="R100" t="s">
+        <v>139</v>
+      </c>
+      <c r="S100" t="s">
+        <v>139</v>
+      </c>
+      <c r="T100" t="s">
+        <v>139</v>
+      </c>
+      <c r="U100" t="s">
+        <v>139</v>
+      </c>
+      <c r="V100" t="s">
+        <v>139</v>
+      </c>
+      <c r="W100" t="s">
+        <v>139</v>
+      </c>
+      <c r="X100" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y100" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B102" s="5"/>
-      <c r="G102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
+      <c r="D102" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" t="s">
+        <v>139</v>
+      </c>
+      <c r="G102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H102" t="s">
+        <v>139</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+      <c r="K102" t="s">
+        <v>139</v>
+      </c>
+      <c r="L102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M102" t="s">
+        <v>139</v>
+      </c>
+      <c r="N102" t="s">
+        <v>139</v>
+      </c>
+      <c r="O102" t="s">
+        <v>139</v>
+      </c>
+      <c r="P102" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>139</v>
+      </c>
+      <c r="R102" t="s">
+        <v>139</v>
+      </c>
+      <c r="S102" t="s">
+        <v>139</v>
+      </c>
+      <c r="T102" t="s">
+        <v>139</v>
+      </c>
+      <c r="U102" t="s">
+        <v>139</v>
+      </c>
+      <c r="V102" t="s">
+        <v>139</v>
+      </c>
+      <c r="W102" t="s">
+        <v>139</v>
+      </c>
+      <c r="X102" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y102" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A103" s="3"/>
+      <c r="D103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" t="s">
+        <v>139</v>
+      </c>
+      <c r="H103" t="s">
+        <v>139</v>
+      </c>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+      <c r="J103" t="s">
+        <v>139</v>
+      </c>
+      <c r="K103" t="s">
+        <v>139</v>
+      </c>
+      <c r="L103" t="s">
+        <v>139</v>
+      </c>
+      <c r="M103" t="s">
+        <v>139</v>
+      </c>
+      <c r="N103" t="s">
+        <v>139</v>
+      </c>
+      <c r="O103" t="s">
+        <v>139</v>
+      </c>
+      <c r="P103" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>139</v>
+      </c>
+      <c r="R103" t="s">
+        <v>139</v>
+      </c>
+      <c r="S103" t="s">
+        <v>139</v>
+      </c>
+      <c r="T103" t="s">
+        <v>139</v>
+      </c>
+      <c r="U103" t="s">
+        <v>139</v>
+      </c>
+      <c r="V103" t="s">
+        <v>139</v>
+      </c>
+      <c r="W103" t="s">
+        <v>139</v>
+      </c>
+      <c r="X103" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2595,5 +7462,6 @@
     <hyperlink ref="A14" r:id="rId10" location="ABNF" display="http://docs.oasis-open.org/odata/odata/v4.01/odata-v4.01-part1-protocol.html - ABNF" xr:uid="{89F39009-74E0-D84B-AE2C-23AD4B113EE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/ODataFilters.xlsx
+++ b/ODataFilters.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\Documents\GitHub\PowerPlatform-PowerAutomate-Sone\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5913C681-8EB5-4530-A733-5ACBF8726B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A761D5-2CFE-4050-B3A2-38E2A6DB53EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="321">
   <si>
     <t>Description</t>
   </si>
@@ -378,13 +373,7 @@
     <t>hassubset</t>
   </si>
   <si>
-    <t>hassubsequence</t>
-  </si>
-  <si>
     <t>String Functions</t>
-  </si>
-  <si>
-    <t>matchesPattern</t>
   </si>
   <si>
     <t>tolower</t>
@@ -1218,6 +1207,293 @@
   <si>
     <t>ya_mydecimalnumber mod 5 gt 0
 The "Modulo" operator isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>concat(ya_mydecimalnumber, ',') ne ''
+No function signature for the function with name 'concat' matches the specified arguments. The function signatures considered are: concat(Edm.String Nullable=true, Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>contains(ya_mydecimalnumber, '1')
+No function signature for the function with name 'contains' matches the specified arguments. The function signatures considered are: contains(Edm.String Nullable=true, Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>endswith(ya_mydecimalnumber, '1')
+No function signature for the function with name 'endswith' matches the specified arguments. The function signatures considered are: endswith(Edm.String Nullable=true, Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>indexof(ya_mydecimalnumber, '1') eq 0
+No function signature for the function with name 'indexof' matches the specified arguments. The function signatures considered are: indexof(Edm.String Nullable=true, Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>length(ya_mydecimalnumber, '1') ne 0
+No function signature for the function with name 'length' matches the specified arguments. The function signatures considered are: length(Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>startswith(ya_mydecimalnumber, '1')
+No function signature for the function with name 'startswith' matches the specified arguments. The function signatures considered are: startswith(Edm.String Nullable=true, Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>substring(ya_mydecimalnumber, 1) ne ''
+No function signature for the function with name 'substring' matches the specified arguments. The function signatures considered are: substring(Edm.String Nullable=true, Edm.Int32); substring(Edm.String Nullable=true, Edm.Int32 Nullable=true); substring(Edm.String Nullable=true, Edm.Int32, Edm.Int32); substring(Edm.String Nullable=true, Edm.Int32 Nullable=true, Edm.Int32); substring(Edm.String Nullable=true, Edm.Int32, Edm.Int32 Nullable=true); substring(Edm.String Nullable=true, Edm.Int32 Nullable=true, Edm.Int32 Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hassubset(ya_mydecimalnumber, ya_mydecimalnumber)
+An unknown function with name 'hassubset' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hassubsequence</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hassubsequence(ya_mydecimalnumber, ya_mydecimalnumber)
+An unknown function with name 'hassubsequence' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>matchesPattern</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>matchesPattern(ya_mydecimalnumber, '.+')
+An unknown function with name 'matchesPattern' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>tolower(ya_mydecimalnumber) ne ''
+No function signature for the function with name 'tolower' matches the specified arguments. The function signatures considered are: tolower(Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>toupper(ya_mydecimalnumber) ne ''
+No function signature for the function with name 'toupper' matches the specified arguments. The function signatures considered are: toupper(Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>trim(ya_mydecimalnumber) ne ''
+No function signature for the function with name 'trim' matches the specified arguments. The function signatures considered are: trim(Edm.String Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>day(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'day' matches the specified arguments. The function signatures considered are: day(Edm.DateTimeOffset); day(Edm.DateTimeOffset Nullable=true); day(Edm.Date); day(Edm.Date Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>date(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'date' matches the specified arguments. The function signatures considered are: date(Edm.DateTimeOffset); date(Edm.DateTimeOffset Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>second(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'second' matches the specified arguments. The function signatures considered are: second(Edm.DateTimeOffset); second(Edm.DateTimeOffset Nullable=true); second(Edm.Duration); second(Edm.Duration Nullable=true); second(Edm.TimeOfDay); second(Edm.TimeOfDay Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hour(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'hour' matches the specified arguments. The function signatures considered are: hour(Edm.DateTimeOffset); hour(Edm.DateTimeOffset Nullable=true); hour(Edm.Duration); hour(Edm.Duration Nullable=true); hour(Edm.TimeOfDay); hour(Edm.TimeOfDay Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>minute(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'minute' matches the specified arguments. The function signatures considered are: minute(Edm.DateTimeOffset); minute(Edm.DateTimeOffset Nullable=true); minute(Edm.Duration); minute(Edm.Duration Nullable=true); minute(Edm.TimeOfDay); minute(Edm.TimeOfDay Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>month(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'month' matches the specified arguments. The function signatures considered are: month(Edm.DateTimeOffset); month(Edm.DateTimeOffset Nullable=true); month(Edm.Date); month(Edm.Date Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>time(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'time' matches the specified arguments. The function signatures considered are: time(Edm.DateTimeOffset); time(Edm.DateTimeOffset Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totaloffsetminutes(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'totaloffsetminutes' matches the specified arguments. The function signatures considered are: totaloffsetminutes(Edm.DateTimeOffset); totaloffsetminutes(Edm.DateTimeOffset Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totalseconds(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'totalseconds' matches the specified arguments. The function signatures considered are: totalseconds(Edm.Duration); totalseconds(Edm.Duration Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>year(ya_mydecimalnumber) eq 8
+No function signature for the function with name 'year' matches the specified arguments. The function signatures considered are: year(Edm.DateTimeOffset); year(Edm.DateTimeOffset Nullable=true); year(Edm.Date); year(Edm.Date Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ceiling(ya_mydecimalnumber) eq 0
+The "ceiling" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>floor(ya_mydecimalnumber) eq 0
+The "floor" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>round(ya_mydecimalnumber) eq 0
+The "round" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>cast(ya_mydecimalnumber, Edm.String) ne null
+The "cast" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>isof(ya_mydecimalnumber, Edm.String)
+The "isof" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>isof(ya_mydecimalnumber)
+Cast or IsOf Function must have a type in its arguments.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>case(ya_mydecimalnumbereq null:1,ya_mytext eq '':-1,true:0)
+')' or ',' expected at position 26 in 'case(ya_mydecimalnumbereq null:1,ya_mytext eq '':-1,true:0)'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>substringof(ya_mydecimalnumber, 'Quisque')
+An unknown function with name 'substringof' was found. This may also be a function import or a key lookup on a navigation property, which is not allowed.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>geo.distance()
+No function signature for the function with name 'geo.distance' matches the specified arguments. The function signatures considered are: geo.distance(Edm.GeographyPoint Nullable=true, Edm.GeographyPoint Nullable=true); geo.distance(Edm.GeometryPoint Nullable=true, Edm.GeometryPoint Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>geo.intersects()
+No function signature for the function with name 'geo.intersects' matches the specified arguments. The function signatures considered are: geo.intersects(Edm.GeometryPoint Nullable=true, Edm.GeometryPolygon Nullable=true); geo.intersects(Edm.GeometryPolygon Nullable=true, Edm.GeometryPoint Nullable=true); geo.intersects(Edm.GeographyPoint Nullable=true, Edm.GeographyPolygon Nullable=true); geo.intersects(Edm.GeographyPolygon Nullable=true, Edm.GeographyPoint Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime eq null</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime ne null</t>
+  </si>
+  <si>
+    <t>ya_mydateandtime gt '2021-11-03T12:00:00Z'</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime ge '2021-11-03T12:00:00Z'</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime le '2021-11-04T13:00:00Z'</t>
+  </si>
+  <si>
+    <t>ya_mydateandtime lt '2021-11-04T13:00:00Z'</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime has null
+An internal error 'TypePromotionUtils_GetFunctionSignatures_Binary_UnreachableCodepath' occurred.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime in null
+A null value was found with the expected type 'Collection(Edm.DateTimeOffset)[Nullable=False]'. The expected type 'Collection(Edm.DateTimeOffset)[Nullable=False]' does not allow null values.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime eq null and ya_mydateandtime eq null</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydateandtime eq null or ya_mydateandtime eq null</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>not ( ya_mydateandtime eq null )</t>
+  </si>
+  <si>
+    <t>not ( ya_mydateandtime eq null )
+not ( ya_mydateandtime )
+A unary operator with an incompatible type was detected. Found operand type 'Edm.DateTimeOffset' for operator kind 'Not'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>not ( ya_mydecimalnumber eq null )
+not ( ya_mydecimalnumber )
+A unary operator with an incompatible type was detected. Found operand type 'Edm.Decimal' for operator kind 'Not'.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ya_mydecimalnumber  add 5 gt 0
+The "Add" operator isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>day( ya_mydecimalnumber ) eq 8
+No function signature for the function with name 'day' matches the specified arguments. The function signatures considered are: day(Edm.DateTimeOffset); day(Edm.DateTimeOffset Nullable=true); day(Edm.Date); day(Edm.Date Nullable=true).
+day( '2021-11-26T13:00:00Z' ) eq 8
+No function signature for the function with name 'day' matches the specified arguments. The function signatures considered are: day(Edm.DateTimeOffset); day(Edm.DateTimeOffset Nullable=true); day(Edm.Date); day(Edm.Date Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>date( ya_mydateandtime ) eq date( ya_mydateandtime )
+The "date" function isn't supported.
+date( '2021-11-26T13:00:00Z' ) eq 8
+No function signature for the function with name 'date' matches the specified arguments. The function signatures considered are: date(Edm.DateTimeOffset); date(Edm.DateTimeOffset Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>second( ya_mydateandtime ) eq 8
+The "second" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hour( ya_mydateandtime ) eq 8
+The "hour" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>minute( ya_mydateandtime ) eq 8
+The "minute" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>month( ya_mydateandtime ) eq 8
+The "month" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>time( ya_mydateandtime ) eq time( ya_mydateandtime )
+The "time" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totaloffsetminutes( ya_mydateandtime ) eq 8
+The "totaloffsetminutes" function isn't supported.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>totalseconds( ya_mydateandtime ) eq 8
+No function signature for the function with name 'totalseconds' matches the specified arguments. The function signatures considered are: totalseconds(Edm.Duration); totalseconds(Edm.Duration Nullable=true).</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>year( ya_mydateandtime ) eq 8
+The "year" function isn't supported.</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1347,7 +1623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1357,6 +1633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,6 +1701,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1738,19 +2023,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F1B36-E3DB-8E4A-9C96-A6B03BE0B94E}">
   <dimension ref="A2:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.3046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="3.07421875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3828125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.84375" style="2" customWidth="1"/>
+    <col min="4" max="11" width="3.07421875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="77.765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.07421875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="88" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="24" width="3.07421875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="93.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="243.3828125" style="2" customWidth="1"/>
     <col min="26" max="26" width="3" style="2" customWidth="1"/>
     <col min="27" max="31" width="3.07421875" style="2" customWidth="1"/>
     <col min="32" max="32" width="10.84375" style="2" customWidth="1"/>
@@ -1759,106 +2044,106 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.6">
@@ -1866,7 +2151,7 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.6">
@@ -1874,7 +2159,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.6">
@@ -1882,7 +2167,7 @@
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.6">
@@ -1890,24 +2175,24 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
       <c r="D22" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A23" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>0</v>
@@ -1916,88 +2201,88 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="L23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="O23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W23" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="AA23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="Y23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z23" s="2" t="s">
+      <c r="AB23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AC23" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AB23" s="2" t="s">
+      <c r="AD23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AE23" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.6">
@@ -2005,88 +2290,88 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.6">
@@ -2100,85 +2385,85 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.6">
@@ -2192,88 +2477,88 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
@@ -2284,88 +2569,88 @@
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A28" s="8" t="s">
         <v>12</v>
       </c>
@@ -2376,88 +2661,88 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -2468,88 +2753,88 @@
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -2560,85 +2845,85 @@
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="100" x14ac:dyDescent="0.6">
@@ -2652,88 +2937,88 @@
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="120" x14ac:dyDescent="0.6">
       <c r="A32" s="8" t="s">
         <v>24</v>
       </c>
@@ -2744,85 +3029,85 @@
         <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.6">
@@ -2841,85 +3126,85 @@
         <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.6">
@@ -2933,88 +3218,88 @@
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="120" x14ac:dyDescent="0.6">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -3025,85 +3310,85 @@
         <v>36</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>257</v>
+        <v>137</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.6">
@@ -3111,7 +3396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
@@ -3122,88 +3407,88 @@
         <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y38" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A39" s="8" t="s">
         <v>41</v>
       </c>
@@ -3214,88 +3499,88 @@
         <v>43</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
@@ -3306,88 +3591,88 @@
         <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A41" s="8" t="s">
         <v>47</v>
       </c>
@@ -3398,88 +3683,88 @@
         <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y41" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" ht="100" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A42" s="8" t="s">
         <v>50</v>
       </c>
@@ -3490,88 +3775,88 @@
         <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y42" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A43" s="8" t="s">
         <v>53</v>
       </c>
@@ -3582,85 +3867,85 @@
         <v>55</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y43" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.6">
@@ -3679,85 +3964,85 @@
         <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.6">
@@ -3765,7 +4050,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.6">
@@ -3773,7 +4058,7 @@
         <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.6">
@@ -3781,7 +4066,7 @@
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.6">
@@ -3789,7 +4074,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.6">
@@ -3797,16 +4082,16 @@
         <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A54" s="3"/>
       <c r="D54" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.6">
@@ -3817,88 +4102,88 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="I55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="O55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W55" s="2" t="s">
+      <c r="Z55" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="X55" s="2" t="s">
+      <c r="AA55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="Y55" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z55" s="2" t="s">
+      <c r="AB55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AA55" s="2" t="s">
+      <c r="AC55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AB55" s="2" t="s">
+      <c r="AD55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AC55" s="2" t="s">
+      <c r="AE55" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="AD55" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE55" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.6">
@@ -3906,7 +4191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A57" s="8" t="s">
         <v>70</v>
       </c>
@@ -3914,91 +4199,91 @@
         <v>71</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y57" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A58" s="8" t="s">
         <v>72</v>
       </c>
@@ -4006,91 +4291,91 @@
         <v>73</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A59" s="8" t="s">
         <v>74</v>
       </c>
@@ -4098,91 +4383,91 @@
         <v>75</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A60" s="8" t="s">
         <v>76</v>
       </c>
@@ -4190,91 +4475,91 @@
         <v>77</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y60" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A61" s="8" t="s">
         <v>78</v>
       </c>
@@ -4282,91 +4567,91 @@
         <v>79</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y61" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A62" s="8" t="s">
         <v>80</v>
       </c>
@@ -4374,180 +4659,180 @@
         <v>81</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="140" x14ac:dyDescent="0.6">
       <c r="A63" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y63" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.6">
@@ -4560,2963 +4845,2963 @@
         <v>84</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y65" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A66" s="8" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y66" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A67" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A68" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y68" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A69" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y69" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y68" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE68" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" ht="40" x14ac:dyDescent="0.6">
-      <c r="A69" s="8" t="s">
+      <c r="B70" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="D70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y70" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y69" s="13" t="s">
+      <c r="Z70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" ht="60" x14ac:dyDescent="0.6">
+      <c r="A71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y71" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="Z69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE69" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" ht="40" x14ac:dyDescent="0.6">
-      <c r="A70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y70" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE70" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" ht="40" x14ac:dyDescent="0.6">
-      <c r="A71" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y71" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="Z71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A72" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="180" x14ac:dyDescent="0.6">
+      <c r="A73" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y73" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE73" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="140" x14ac:dyDescent="0.6">
+      <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" ht="80" x14ac:dyDescent="0.6">
-      <c r="A73" s="8" t="s">
+      <c r="B74" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="D74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y74" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y73" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE73" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" ht="60" x14ac:dyDescent="0.6">
-      <c r="A74" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y74" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="Z74" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="100" x14ac:dyDescent="0.6">
       <c r="A75" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y75" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE75" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="100" x14ac:dyDescent="0.6">
       <c r="A76" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y76" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A77" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y77" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A78" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y78" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="100" x14ac:dyDescent="0.6">
       <c r="A79" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y79" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="80" x14ac:dyDescent="0.6">
       <c r="A80" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y80" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Z80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A81" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y81" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="100" x14ac:dyDescent="0.6">
       <c r="A82" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y82" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A83" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y83" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="80" x14ac:dyDescent="0.6">
       <c r="A84" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y84" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE84" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="80" x14ac:dyDescent="0.6">
+      <c r="A85" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y84" s="11" t="s">
+      <c r="B85" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y85" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="Z84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE84" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" ht="60" x14ac:dyDescent="0.6">
-      <c r="A85" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y85" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="Z85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="80" x14ac:dyDescent="0.6">
       <c r="A86" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y86" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A87" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A88" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y88" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE88" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A89" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" ht="80" x14ac:dyDescent="0.6">
-      <c r="A88" s="8" t="s">
+      <c r="D89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y89" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE89" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" ht="40" x14ac:dyDescent="0.6">
+      <c r="A90" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y88" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE88" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" ht="80" x14ac:dyDescent="0.6">
-      <c r="A89" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y89" s="11" t="s">
+      <c r="D90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y90" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="Z89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE89" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" ht="80" x14ac:dyDescent="0.6">
-      <c r="A90" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y90" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="Z90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A91" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A92" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y92" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AA92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A93" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y93" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A94" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y94" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Z94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A95" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="100" x14ac:dyDescent="0.6">
+      <c r="A96" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" ht="40" x14ac:dyDescent="0.6">
-      <c r="A96" s="8" t="s">
+      <c r="D96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y96" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE96" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" ht="140" x14ac:dyDescent="0.6">
+      <c r="A97" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y96" s="13" t="s">
+      <c r="B97" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y97" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="Z96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE96" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" ht="60" x14ac:dyDescent="0.6">
-      <c r="A97" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y97" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="Z97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="80" x14ac:dyDescent="0.6">
       <c r="A98" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y98" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Z98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A99" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="40" x14ac:dyDescent="0.6">
       <c r="A100" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y100" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="60" x14ac:dyDescent="0.6">
       <c r="A102" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B102" s="10"/>
       <c r="D102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="N102" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y102" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Z102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A103" s="8"/>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/ODataFilters.xlsx
+++ b/ODataFilters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yu/Documents/GitHub/PowerPlatform-PowerAutomate-Sone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F47CD66-78FD-A949-855F-07479C737556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928252C0-373D-7C4A-B4DC-60633DC70088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8020" windowWidth="33560" windowHeight="15620" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
+    <workbookView xWindow="0" yWindow="8000" windowWidth="33560" windowHeight="15620" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,11 +1352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F1B36-E3DB-8E4A-9C96-A6B03BE0B94E}">
   <dimension ref="A2:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="69.140625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
@@ -1387,7 +1387,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A3" s="7" t="s">
         <v>150</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A4" s="6" t="s">
         <v>151</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A5" s="7" t="s">
         <v>152</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A6" s="6" t="s">
         <v>153</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A7" s="6" t="s">
         <v>154</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A8" s="7" t="s">
         <v>155</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A9" s="8" t="s">
         <v>156</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A10" s="9" t="s">
         <v>157</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A11" s="6" t="s">
         <v>158</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A12" s="8" t="s">
         <v>159</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A13" s="9" t="s">
         <v>160</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A14" s="6" t="s">
         <v>161</v>
       </c>
@@ -1483,6 +1483,9 @@
         <v>162</v>
       </c>
     </row>
+    <row r="15" spans="1:2" hidden="1" outlineLevel="1"/>
+    <row r="16" spans="1:2" hidden="1" outlineLevel="1"/>
+    <row r="17" spans="1:31" collapsed="1"/>
     <row r="18" spans="1:31">
       <c r="A18" s="6" t="s">
         <v>60</v>
@@ -1491,7 +1494,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" hidden="1" outlineLevel="1">
       <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" hidden="1" outlineLevel="1">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" hidden="1" outlineLevel="1">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" collapsed="1">
       <c r="A22" s="6"/>
       <c r="D22" s="2" t="s">
         <v>163</v>
@@ -1637,6 +1640,9 @@
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="G25">
         <v>1</v>
       </c>
@@ -1654,6 +1660,9 @@
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="G26">
         <v>1</v>
       </c>
@@ -1671,6 +1680,9 @@
       <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="3" t="s">
@@ -1682,6 +1694,9 @@
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
       <c r="E28">
         <v>1</v>
       </c>
@@ -1699,6 +1714,9 @@
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="3" t="s">
@@ -1710,6 +1728,9 @@
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
       <c r="E30">
         <v>1</v>
       </c>
@@ -1727,6 +1748,9 @@
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="3" t="s">
@@ -1738,6 +1762,9 @@
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="G32">
         <v>0</v>
       </c>
@@ -1760,6 +1787,9 @@
       <c r="C34" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34">
         <v>1</v>
       </c>
@@ -1783,6 +1813,9 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="G35">
         <v>1</v>
       </c>
@@ -1800,6 +1833,9 @@
       <c r="C36" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -1929,6 +1965,9 @@
       <c r="C45" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="Y45">
         <v>1</v>
       </c>
@@ -1941,7 +1980,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" hidden="1" outlineLevel="1">
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
@@ -1949,7 +1988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" hidden="1" outlineLevel="1">
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
@@ -1957,7 +1996,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" hidden="1" outlineLevel="1">
       <c r="A52" s="6" t="s">
         <v>63</v>
       </c>
@@ -1965,7 +2004,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" hidden="1" outlineLevel="1">
       <c r="A53" s="7" t="s">
         <v>67</v>
       </c>
@@ -1973,7 +2012,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" collapsed="1">
       <c r="A54" s="7"/>
       <c r="D54" s="2" t="s">
         <v>163</v>

--- a/ODataFilters.xlsx
+++ b/ODataFilters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yu/Documents/GitHub/PowerPlatform-PowerAutomate-Sone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928252C0-373D-7C4A-B4DC-60633DC70088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCAD6D-47F2-7B4F-8945-38C4E5BC79F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="8000" windowWidth="33560" windowHeight="15620" xr2:uid="{0E657B7F-6C9B-0F42-82BF-D8AE3966EDAE}"/>
   </bookViews>
@@ -1352,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F1B36-E3DB-8E4A-9C96-A6B03BE0B94E}">
   <dimension ref="A2:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
